--- a/database/seeds/csvs/schools-universities.xlsx
+++ b/database/seeds/csvs/schools-universities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B4ACC0-00B8-43AB-8BA6-F55642CAB668}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D5403-05DE-46E8-BD02-E93442E11973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C55A2BD8-7250-4E84-8D4E-BA2B9FD21431}"/>
   </bookViews>
@@ -3260,7 +3260,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF0CE763-16FE-4896-B69B-A744111DC284}" name="Table1" displayName="Table1" ref="A1:D199" totalsRowShown="0">
   <autoFilter ref="A1:D199" xr:uid="{0650E731-3BD5-44E3-AD5D-F07E114B7B88}"/>
   <sortState ref="A2:D199">
-    <sortCondition ref="B1:B199"/>
+    <sortCondition ref="C1:C199"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FF5F1F1B-FBE0-4C0E-95D4-10F615B331B5}" name="name_th"/>
@@ -7758,8 +7758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54777062-7541-45FA-8504-632238C86CFC}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>943</v>
+        <v>987</v>
       </c>
       <c r="B2" t="s">
         <v>1033</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B3" t="s">
         <v>1033</v>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B4" t="s">
         <v>1033</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B5" t="s">
         <v>1033</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B6" t="s">
         <v>1033</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B7" t="s">
         <v>1033</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B8" t="s">
         <v>1033</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="B9" t="s">
         <v>1033</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B10" t="s">
         <v>1033</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B11" t="s">
         <v>1033</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1003</v>
+        <v>943</v>
       </c>
       <c r="B19" t="s">
         <v>1033</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B20" t="s">
         <v>1033</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="B24" t="s">
         <v>1032</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="B25" t="s">
         <v>1032</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="B26" t="s">
         <v>1032</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="B27" t="s">
         <v>1032</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="B28" t="s">
         <v>1032</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="B29" t="s">
         <v>1032</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="B30" t="s">
         <v>1032</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="B31" t="s">
         <v>1032</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="B32" t="s">
         <v>1032</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1023</v>
+        <v>888</v>
       </c>
       <c r="B33" t="s">
         <v>1032</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1024</v>
+        <v>890</v>
       </c>
       <c r="B34" t="s">
         <v>1032</v>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1025</v>
+        <v>892</v>
       </c>
       <c r="B35" t="s">
         <v>1032</v>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1026</v>
+        <v>893</v>
       </c>
       <c r="B36" t="s">
         <v>1032</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1020</v>
+        <v>894</v>
       </c>
       <c r="B37" t="s">
         <v>1032</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1021</v>
+        <v>895</v>
       </c>
       <c r="B38" t="s">
         <v>1032</v>
@@ -8229,7 +8229,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1022</v>
+        <v>896</v>
       </c>
       <c r="B39" t="s">
         <v>1032</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1010</v>
+        <v>897</v>
       </c>
       <c r="B40" t="s">
         <v>1032</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1011</v>
+        <v>898</v>
       </c>
       <c r="B41" t="s">
         <v>1032</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1012</v>
+        <v>899</v>
       </c>
       <c r="B42" t="s">
         <v>1032</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1013</v>
+        <v>900</v>
       </c>
       <c r="B43" t="s">
         <v>1032</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1014</v>
+        <v>912</v>
       </c>
       <c r="B44" t="s">
         <v>1032</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="B45" t="s">
         <v>1032</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1015</v>
+        <v>901</v>
       </c>
       <c r="B46" t="s">
         <v>1032</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1016</v>
+        <v>902</v>
       </c>
       <c r="B47" t="s">
         <v>1032</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1017</v>
+        <v>903</v>
       </c>
       <c r="B48" t="s">
         <v>1032</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>1018</v>
+        <v>904</v>
       </c>
       <c r="B49" t="s">
         <v>1032</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>1019</v>
+        <v>905</v>
       </c>
       <c r="B50" t="s">
         <v>1032</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>881</v>
+        <v>1023</v>
       </c>
       <c r="B51" t="s">
         <v>1032</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>882</v>
+        <v>1024</v>
       </c>
       <c r="B52" t="s">
         <v>1032</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>883</v>
+        <v>1025</v>
       </c>
       <c r="B53" t="s">
         <v>1032</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>884</v>
+        <v>1026</v>
       </c>
       <c r="B54" t="s">
         <v>1032</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>885</v>
+        <v>1020</v>
       </c>
       <c r="B55" t="s">
         <v>1032</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>886</v>
+        <v>1021</v>
       </c>
       <c r="B56" t="s">
         <v>1032</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>887</v>
+        <v>1022</v>
       </c>
       <c r="B57" t="s">
         <v>1032</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>888</v>
+        <v>1010</v>
       </c>
       <c r="B58" t="s">
         <v>1032</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>889</v>
+        <v>1011</v>
       </c>
       <c r="B59" t="s">
         <v>1032</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>890</v>
+        <v>1012</v>
       </c>
       <c r="B60" t="s">
         <v>1032</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>891</v>
+        <v>1013</v>
       </c>
       <c r="B61" t="s">
         <v>1032</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>892</v>
+        <v>1014</v>
       </c>
       <c r="B62" t="s">
         <v>1032</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="B63" t="s">
         <v>1032</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>894</v>
+        <v>1015</v>
       </c>
       <c r="B64" t="s">
         <v>1032</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>895</v>
+        <v>1016</v>
       </c>
       <c r="B65" t="s">
         <v>1032</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>896</v>
+        <v>1017</v>
       </c>
       <c r="B66" t="s">
         <v>1032</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>897</v>
+        <v>1018</v>
       </c>
       <c r="B67" t="s">
         <v>1032</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>898</v>
+        <v>1019</v>
       </c>
       <c r="B68" t="s">
         <v>1032</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="B69" t="s">
         <v>1032</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="B70" t="s">
         <v>1032</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="B71" t="s">
         <v>1031</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B72" t="s">
         <v>1031</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="B73" t="s">
         <v>1031</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B74" t="s">
         <v>1031</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="B75" t="s">
         <v>1031</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="B76" t="s">
         <v>1031</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="B77" t="s">
         <v>1031</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>951</v>
+        <v>976</v>
       </c>
       <c r="B78" t="s">
         <v>1031</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="B79" t="s">
         <v>1031</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>953</v>
+        <v>985</v>
       </c>
       <c r="B80" t="s">
         <v>1031</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="B81" t="s">
         <v>1031</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="B82" t="s">
         <v>1031</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="B83" t="s">
         <v>1031</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="B84" t="s">
         <v>1031</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B85" t="s">
         <v>1031</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B86" t="s">
         <v>1031</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>960</v>
+        <v>1007</v>
       </c>
       <c r="B87" t="s">
         <v>1031</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="B88" t="s">
         <v>1031</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B89" t="s">
         <v>1031</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B90" t="s">
         <v>1031</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B91" t="s">
         <v>1031</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B92" t="s">
         <v>1031</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B93" t="s">
         <v>1031</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B94" t="s">
         <v>1031</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B95" t="s">
         <v>1031</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B96" t="s">
         <v>1031</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B97" t="s">
         <v>1031</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B98" t="s">
         <v>1031</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B99" t="s">
         <v>1031</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B100" t="s">
         <v>1031</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B101" t="s">
         <v>1031</v>
@@ -8985,7 +8985,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B102" t="s">
         <v>1031</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B103" t="s">
         <v>1031</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B104" t="s">
         <v>1031</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B105" t="s">
         <v>1031</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B106" t="s">
         <v>1031</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B107" t="s">
         <v>1031</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B108" t="s">
         <v>1031</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B109" t="s">
         <v>1031</v>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B110" t="s">
         <v>1031</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B111" t="s">
         <v>1031</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>985</v>
+        <v>1008</v>
       </c>
       <c r="B112" t="s">
         <v>1031</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="B113" t="s">
         <v>1031</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="B114" t="s">
         <v>1031</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B115" t="s">
         <v>1031</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B116" t="s">
         <v>1029</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B117" t="s">
         <v>1029</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B118" t="s">
         <v>1029</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B119" t="s">
         <v>1029</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B120" t="s">
         <v>1029</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B121" t="s">
         <v>1029</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="B122" t="s">
         <v>1029</v>
@@ -9252,13 +9252,10 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D122" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="B123" t="s">
         <v>1029</v>
@@ -9267,13 +9264,10 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D123" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>926</v>
+        <v>824</v>
       </c>
       <c r="B124" t="s">
         <v>1029</v>
@@ -9282,13 +9276,10 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D124" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="B125" t="s">
         <v>1029</v>
@@ -9303,7 +9294,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B126" t="s">
         <v>1029</v>
@@ -9312,13 +9303,10 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D126" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="B127" t="s">
         <v>1029</v>
@@ -9333,7 +9321,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>936</v>
+        <v>827</v>
       </c>
       <c r="B128" t="s">
         <v>1029</v>
@@ -9348,7 +9336,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>920</v>
+        <v>825</v>
       </c>
       <c r="B129" t="s">
         <v>1029</v>
@@ -9360,7 +9348,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>925</v>
+        <v>826</v>
       </c>
       <c r="B130" t="s">
         <v>1029</v>
@@ -9372,7 +9360,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B131" t="s">
         <v>1029</v>
@@ -9384,7 +9372,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B132" t="s">
         <v>1029</v>
@@ -9393,10 +9381,13 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="D132" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B133" t="s">
         <v>1029</v>
@@ -9408,7 +9399,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B134" t="s">
         <v>1029</v>
@@ -9420,7 +9411,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B135" t="s">
         <v>1029</v>
@@ -9432,7 +9423,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>933</v>
+        <v>828</v>
       </c>
       <c r="B136" t="s">
         <v>1029</v>
@@ -9444,7 +9435,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B137" t="s">
         <v>1029</v>
@@ -9453,10 +9444,13 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="D137" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>941</v>
+        <v>829</v>
       </c>
       <c r="B138" t="s">
         <v>1029</v>
@@ -9465,13 +9459,10 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D138" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B139" t="s">
         <v>1029</v>
@@ -9483,7 +9474,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B140" t="s">
         <v>1029</v>
@@ -9492,10 +9483,13 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="D140" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B141" t="s">
         <v>1029</v>
@@ -9504,10 +9498,13 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="D141" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B142" t="s">
         <v>1029</v>
@@ -9516,10 +9513,13 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="D142" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>827</v>
+        <v>937</v>
       </c>
       <c r="B143" t="s">
         <v>1029</v>
@@ -9528,13 +9528,10 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D143" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="B144" t="s">
         <v>1029</v>
@@ -9546,7 +9543,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B145" t="s">
         <v>1029</v>
@@ -9558,7 +9555,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>826</v>
+        <v>940</v>
       </c>
       <c r="B146" t="s">
         <v>1029</v>
@@ -9570,7 +9567,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B147" t="s">
         <v>1029</v>
@@ -9582,7 +9579,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
       <c r="B148" t="s">
         <v>1029</v>
@@ -9591,10 +9588,13 @@
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="D148" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>830</v>
+        <v>938</v>
       </c>
       <c r="B149" t="s">
         <v>1029</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>831</v>
+        <v>939</v>
       </c>
       <c r="B150" t="s">
         <v>1029</v>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>833</v>
+        <v>942</v>
       </c>
       <c r="B152" t="s">
         <v>1029</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="B153" t="s">
         <v>1030</v>
@@ -9657,7 +9657,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B154" t="s">
         <v>1030</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B155" t="s">
         <v>1030</v>
@@ -9687,7 +9687,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="B156" t="s">
         <v>1030</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="B157" t="s">
         <v>1030</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="B158" t="s">
         <v>1030</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B159" t="s">
         <v>1030</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B160" t="s">
         <v>1030</v>
@@ -9762,7 +9762,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B161" t="s">
         <v>1030</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B162" t="s">
         <v>1030</v>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B163" t="s">
         <v>1030</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B164" t="s">
         <v>1030</v>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B165" t="s">
         <v>1030</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B166" t="s">
         <v>1030</v>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B167" t="s">
         <v>1030</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B168" t="s">
         <v>1030</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B169" t="s">
         <v>1030</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B170" t="s">
         <v>1030</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B171" t="s">
         <v>1030</v>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B172" t="s">
         <v>1030</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B173" t="s">
         <v>1030</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B174" t="s">
         <v>1030</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B175" t="s">
         <v>1030</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B176" t="s">
         <v>1030</v>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B177" t="s">
         <v>1030</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B178" t="s">
         <v>1030</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B179" t="s">
         <v>1030</v>
@@ -10439,7 +10439,7 @@
   <dimension ref="A1:B219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/database/seeds/csvs/schools-universities.xlsx
+++ b/database/seeds/csvs/schools-universities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D5403-05DE-46E8-BD02-E93442E11973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE02CEE3-6562-43FA-A00A-714AEA921410}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C55A2BD8-7250-4E84-8D4E-BA2B9FD21431}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1056">
   <si>
     <t>โรงเรียนยะหาศิรยานุกูล</t>
   </si>
@@ -3141,6 +3141,60 @@
   </si>
   <si>
     <t>remark</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>BUU</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>KKU</t>
+  </si>
+  <si>
+    <t>KMITL</t>
+  </si>
+  <si>
+    <t>KMUTNB</t>
+  </si>
+  <si>
+    <t>KMUTT</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>RMU</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>SUT</t>
+  </si>
+  <si>
+    <t>SWU</t>
+  </si>
+  <si>
+    <t>TU</t>
   </si>
 </sst>
 </file>
@@ -3257,18 +3311,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF0CE763-16FE-4896-B69B-A744111DC284}" name="Table1" displayName="Table1" ref="A1:D199" totalsRowShown="0">
-  <autoFilter ref="A1:D199" xr:uid="{0650E731-3BD5-44E3-AD5D-F07E114B7B88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF0CE763-16FE-4896-B69B-A744111DC284}" name="Table1" displayName="Table1" ref="A1:E199" totalsRowShown="0">
+  <autoFilter ref="A1:E199" xr:uid="{0650E731-3BD5-44E3-AD5D-F07E114B7B88}"/>
   <sortState ref="A2:D199">
     <sortCondition ref="C1:C199"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FF5F1F1B-FBE0-4C0E-95D4-10F615B331B5}" name="name_th"/>
     <tableColumn id="4" xr3:uid="{C79F5DA3-4CA0-4D65-86D4-0A2658A53FF3}" name="subtype_text"/>
     <tableColumn id="2" xr3:uid="{AE1B0F27-507E-470D-A8AC-DFB41DE5EEF8}" name="subtype" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D80B5BB9-BA8D-4DD7-B249-5A9FEB0EF062}" name="remark"/>
+    <tableColumn id="5" xr3:uid="{BE8BBA56-468C-418B-A754-58B8C9CADDAF}" name="image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7756,10 +7811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54777062-7541-45FA-8504-632238C86CFC}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="N137" sqref="N137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7769,7 +7824,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1034</v>
       </c>
@@ -7782,8 +7837,11 @@
       <c r="D1" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>987</v>
       </c>
@@ -7795,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>988</v>
       </c>
@@ -7807,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>989</v>
       </c>
@@ -7819,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>990</v>
       </c>
@@ -7831,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>993</v>
       </c>
@@ -7843,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>994</v>
       </c>
@@ -7855,7 +7913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>995</v>
       </c>
@@ -7867,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1004</v>
       </c>
@@ -7879,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>991</v>
       </c>
@@ -7891,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>992</v>
       </c>
@@ -7903,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>996</v>
       </c>
@@ -7915,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>997</v>
       </c>
@@ -7927,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>998</v>
       </c>
@@ -7939,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>999</v>
       </c>
@@ -7951,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1000</v>
       </c>
@@ -9115,7 +9173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>983</v>
       </c>
@@ -9127,7 +9185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>984</v>
       </c>
@@ -9139,7 +9197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>1006</v>
       </c>
@@ -9151,7 +9209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>918</v>
       </c>
@@ -9165,8 +9223,11 @@
       <c r="D116" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>916</v>
       </c>
@@ -9180,8 +9241,11 @@
       <c r="D117" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>919</v>
       </c>
@@ -9195,8 +9259,11 @@
       <c r="D118" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>921</v>
       </c>
@@ -9210,8 +9277,11 @@
       <c r="D119" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>922</v>
       </c>
@@ -9225,8 +9295,11 @@
       <c r="D120" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>923</v>
       </c>
@@ -9240,8 +9313,11 @@
       <c r="D121" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>931</v>
       </c>
@@ -9253,7 +9329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>932</v>
       </c>
@@ -9265,7 +9341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>824</v>
       </c>
@@ -9277,7 +9353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>917</v>
       </c>
@@ -9291,8 +9367,11 @@
       <c r="D125" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>920</v>
       </c>
@@ -9304,7 +9383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>924</v>
       </c>
@@ -9318,8 +9397,11 @@
       <c r="D127" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>827</v>
       </c>
@@ -9333,8 +9415,11 @@
       <c r="D128" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>825</v>
       </c>
@@ -9346,7 +9431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>826</v>
       </c>
@@ -9358,7 +9443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>925</v>
       </c>
@@ -9370,7 +9455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>926</v>
       </c>
@@ -9384,8 +9469,11 @@
       <c r="D132" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>927</v>
       </c>
@@ -9397,7 +9485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>928</v>
       </c>
@@ -9409,7 +9497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>929</v>
       </c>
@@ -9421,7 +9509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>828</v>
       </c>
@@ -9433,7 +9521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>930</v>
       </c>
@@ -9447,8 +9535,11 @@
       <c r="D137" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>829</v>
       </c>
@@ -9460,7 +9551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>933</v>
       </c>
@@ -9472,7 +9563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>934</v>
       </c>
@@ -9486,8 +9577,11 @@
       <c r="D140" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>935</v>
       </c>
@@ -9501,8 +9595,11 @@
       <c r="D141" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>936</v>
       </c>
@@ -9516,8 +9613,11 @@
       <c r="D142" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>937</v>
       </c>
@@ -9529,7 +9629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>830</v>
       </c>
@@ -9541,7 +9641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>831</v>
       </c>
@@ -9553,7 +9653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>940</v>
       </c>
@@ -9565,7 +9665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>833</v>
       </c>
@@ -9577,7 +9677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>941</v>
       </c>
@@ -9591,8 +9691,11 @@
       <c r="D148" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>938</v>
       </c>
@@ -9604,7 +9707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>939</v>
       </c>
@@ -9616,7 +9719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>832</v>
       </c>
@@ -9628,7 +9731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>942</v>
       </c>
@@ -9640,7 +9743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>839</v>
       </c>
@@ -9654,8 +9757,11 @@
       <c r="D153" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>838</v>
       </c>
@@ -9669,8 +9775,11 @@
       <c r="D154" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>840</v>
       </c>
@@ -9684,8 +9793,11 @@
       <c r="D155" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>851</v>
       </c>
@@ -9699,8 +9811,11 @@
       <c r="D156" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>852</v>
       </c>
@@ -9714,8 +9829,11 @@
       <c r="D157" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>860</v>
       </c>
@@ -9729,8 +9847,11 @@
       <c r="D158" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>834</v>
       </c>
@@ -9744,8 +9865,11 @@
       <c r="D159" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>835</v>
       </c>
@@ -9759,8 +9883,11 @@
       <c r="D160" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>836</v>
       </c>
@@ -9774,8 +9901,11 @@
       <c r="D161" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>837</v>
       </c>
@@ -9789,8 +9919,11 @@
       <c r="D162" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>841</v>
       </c>
@@ -9804,8 +9937,11 @@
       <c r="D163" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>842</v>
       </c>
@@ -9819,8 +9955,11 @@
       <c r="D164" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>843</v>
       </c>
@@ -9834,8 +9973,11 @@
       <c r="D165" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>844</v>
       </c>
@@ -9849,8 +9991,11 @@
       <c r="D166" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>845</v>
       </c>
@@ -9864,8 +10009,11 @@
       <c r="D167" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>846</v>
       </c>
@@ -9879,8 +10027,11 @@
       <c r="D168" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>847</v>
       </c>
@@ -9894,8 +10045,11 @@
       <c r="D169" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>848</v>
       </c>
@@ -9909,8 +10063,11 @@
       <c r="D170" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>849</v>
       </c>
@@ -9924,8 +10081,11 @@
       <c r="D171" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>850</v>
       </c>
@@ -9939,8 +10099,11 @@
       <c r="D172" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>853</v>
       </c>
@@ -9954,8 +10117,11 @@
       <c r="D173" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>854</v>
       </c>
@@ -9969,8 +10135,11 @@
       <c r="D174" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>855</v>
       </c>
@@ -9984,8 +10153,11 @@
       <c r="D175" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>856</v>
       </c>
@@ -9999,8 +10171,11 @@
       <c r="D176" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>857</v>
       </c>
@@ -10014,8 +10189,11 @@
       <c r="D177" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>858</v>
       </c>
@@ -10029,8 +10207,11 @@
       <c r="D178" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>859</v>
       </c>
@@ -10044,8 +10225,11 @@
       <c r="D179" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>861</v>
       </c>
@@ -10059,8 +10243,11 @@
       <c r="D180" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>862</v>
       </c>
@@ -10074,8 +10261,11 @@
       <c r="D181" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>863</v>
       </c>
@@ -10089,8 +10279,11 @@
       <c r="D182" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>864</v>
       </c>
@@ -10104,8 +10297,11 @@
       <c r="D183" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>865</v>
       </c>
@@ -10119,8 +10315,11 @@
       <c r="D184" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>866</v>
       </c>
@@ -10134,8 +10333,11 @@
       <c r="D185" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>867</v>
       </c>
@@ -10149,8 +10351,11 @@
       <c r="D186" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>868</v>
       </c>
@@ -10164,8 +10369,11 @@
       <c r="D187" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>869</v>
       </c>
@@ -10179,8 +10387,11 @@
       <c r="D188" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>870</v>
       </c>
@@ -10194,8 +10405,11 @@
       <c r="D189" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>871</v>
       </c>
@@ -10209,8 +10423,11 @@
       <c r="D190" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>872</v>
       </c>
@@ -10224,8 +10441,11 @@
       <c r="D191" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>873</v>
       </c>
@@ -10239,8 +10459,11 @@
       <c r="D192" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>874</v>
       </c>
@@ -10254,8 +10477,11 @@
       <c r="D193" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>875</v>
       </c>
@@ -10269,8 +10495,11 @@
       <c r="D194" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>876</v>
       </c>
@@ -10284,8 +10513,11 @@
       <c r="D195" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>877</v>
       </c>
@@ -10299,8 +10531,11 @@
       <c r="D196" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>878</v>
       </c>
@@ -10314,8 +10549,11 @@
       <c r="D197" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>879</v>
       </c>
@@ -10329,8 +10567,11 @@
       <c r="D198" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>880</v>
       </c>
@@ -10344,40 +10585,43 @@
       <c r="D199" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
     </row>

--- a/database/seeds/csvs/schools-universities.xlsx
+++ b/database/seeds/csvs/schools-universities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE02CEE3-6562-43FA-A00A-714AEA921410}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760FB62-E944-4ADF-ACD2-21305AFD179D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C55A2BD8-7250-4E84-8D4E-BA2B9FD21431}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1237">
   <si>
     <t>โรงเรียนยะหาศิรยานุกูล</t>
   </si>
@@ -3131,70 +3131,613 @@
     <t>Colleges</t>
   </si>
   <si>
+    <t>HRH Princess chulabhorn College of Medical Science</t>
+  </si>
+  <si>
+    <t>Chalermkarnchana Rayong College</t>
+  </si>
+  <si>
+    <t>Chiangrai College</t>
+  </si>
+  <si>
+    <t>Saint Louis College</t>
+  </si>
+  <si>
+    <t>Southeast Bangkok College</t>
+  </si>
+  <si>
+    <t>Dusit Thani College</t>
+  </si>
+  <si>
+    <t>Thong Sook College</t>
+  </si>
+  <si>
+    <t>Phanomwan College of Technology</t>
+  </si>
+  <si>
+    <t>Southern College of Technology</t>
+  </si>
+  <si>
+    <t>Siam Technology College</t>
+  </si>
+  <si>
+    <t>Nakhonratchasima College</t>
+  </si>
+  <si>
+    <t>Northern College</t>
+  </si>
+  <si>
+    <t>St Theresa International College</t>
+  </si>
+  <si>
+    <t>Raffles International College</t>
+  </si>
+  <si>
+    <t>College of Asian Scholars</t>
+  </si>
+  <si>
+    <t>Pitchayabundit College</t>
+  </si>
+  <si>
+    <t>International Buddhist College</t>
+  </si>
+  <si>
+    <t>Santapol College</t>
+  </si>
+  <si>
+    <t>Saengtham College</t>
+  </si>
+  <si>
+    <t>Lampang Inter-Tech College</t>
+  </si>
+  <si>
+    <t>Arsom Silp Institute of the Arts</t>
+  </si>
+  <si>
+    <t>Irrigation College</t>
+  </si>
+  <si>
+    <t>Civil Aviation Training Center</t>
+  </si>
+  <si>
+    <t>Institute of physical education</t>
+  </si>
+  <si>
+    <t>Bunditpatanasilpa Institute</t>
+  </si>
+  <si>
+    <t>Praboromarajchanok Institute</t>
+  </si>
+  <si>
+    <t>Northern Institute of Vocational Education In Agriculture</t>
+  </si>
+  <si>
+    <t>Southern Vocational Institute of Agricultural</t>
+  </si>
+  <si>
+    <t>Institute of Vocational education in Agricultural Central Region</t>
+  </si>
+  <si>
+    <t>Northeastern Vocational Institute of Agricultural</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Bangkok</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northeastern Region 1</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northeastern Region 2</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northeastern Region 3</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northeastern Region 4</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northeastern Region 5</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northern Region 1</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northern Region 2</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northern Region 3</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Northern Region 4</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Southern 1</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Southern 2</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Southern 3</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Central Region 1</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Central Region 2</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Central Region 3</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Central Region 4</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Central Region 5</t>
+  </si>
+  <si>
+    <t>Institute of Vocational Education: Eastern Region</t>
+  </si>
+  <si>
+    <t>Trat Community College</t>
+  </si>
+  <si>
+    <t>Tak Community College</t>
+  </si>
+  <si>
+    <t>Narathiwat Community College</t>
+  </si>
+  <si>
+    <t>Nan Community College</t>
+  </si>
+  <si>
+    <t>Buriram Community College</t>
+  </si>
+  <si>
+    <t>Pattanee Community College</t>
+  </si>
+  <si>
+    <t>Phang-nga Community College</t>
+  </si>
+  <si>
+    <t>Phichit Community College</t>
+  </si>
+  <si>
+    <t>Phrae Community College</t>
+  </si>
+  <si>
+    <t>Mukdahan Community College</t>
+  </si>
+  <si>
+    <t>Maehongson Community College</t>
+  </si>
+  <si>
+    <t>Yasothon Community College</t>
+  </si>
+  <si>
+    <t>Yala Community College</t>
+  </si>
+  <si>
+    <t>Ranong Community College</t>
+  </si>
+  <si>
+    <t>Songkha Community College</t>
+  </si>
+  <si>
+    <t>Satun Community College</t>
+  </si>
+  <si>
+    <t>Samutsakhon Community College</t>
+  </si>
+  <si>
+    <t>Sakaew Community College</t>
+  </si>
+  <si>
+    <t>Nong Bua Lamphu Community College</t>
+  </si>
+  <si>
+    <t>Uthaitanee Community College</t>
+  </si>
+  <si>
+    <t>Bangkok University</t>
+  </si>
+  <si>
+    <t>Bangkokthonburi University</t>
+  </si>
+  <si>
+    <t>Bangkok Suvarnabhumi University</t>
+  </si>
+  <si>
+    <t>The Eastern University of Management and Technology</t>
+  </si>
+  <si>
+    <t>Krirk University</t>
+  </si>
+  <si>
+    <t>Kasem Bundit University</t>
+  </si>
+  <si>
+    <t>Christian University of Thailand</t>
+  </si>
+  <si>
+    <t>Chalermkarnchana University</t>
+  </si>
+  <si>
+    <t>Tapee University</t>
+  </si>
+  <si>
+    <t>Chaopraya University</t>
+  </si>
+  <si>
+    <t>Shinawatra University</t>
+  </si>
+  <si>
+    <t>Saint John's University</t>
+  </si>
+  <si>
+    <t>Mahanakorn University of Technology</t>
+  </si>
+  <si>
+    <t>Thonburi University</t>
+  </si>
+  <si>
+    <t>Dhurakij Pundit University</t>
+  </si>
+  <si>
+    <t>North Bangkok University</t>
+  </si>
+  <si>
+    <t>North-Chiang Mai University</t>
+  </si>
+  <si>
+    <t>Stamford International University</t>
+  </si>
+  <si>
+    <t>Asia-Pacific International University</t>
+  </si>
+  <si>
+    <t>Nation University</t>
+  </si>
+  <si>
+    <t>Patumthani University</t>
+  </si>
+  <si>
+    <t>Payap University</t>
+  </si>
+  <si>
+    <t>Phitsanulok University</t>
+  </si>
+  <si>
+    <t>Fatoni University</t>
+  </si>
+  <si>
+    <t>The Far Eastern University</t>
+  </si>
+  <si>
+    <t>The University of Central Thailand</t>
+  </si>
+  <si>
+    <t>North Eastern University</t>
+  </si>
+  <si>
+    <t>Rangsit University</t>
+  </si>
+  <si>
+    <t>Rattana Bundit University</t>
+  </si>
+  <si>
+    <t>Ratchathani University</t>
+  </si>
+  <si>
+    <t>Rajapruk University</t>
+  </si>
+  <si>
+    <t>Vongchavalitkul University</t>
+  </si>
+  <si>
+    <t>Webster University Thailand</t>
+  </si>
+  <si>
+    <t>Western University</t>
+  </si>
+  <si>
+    <t>Sripatum University</t>
+  </si>
+  <si>
+    <t>Siam University</t>
+  </si>
+  <si>
+    <t>University of the Thai Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>Huachiew Chalermprakiet University</t>
+  </si>
+  <si>
+    <t>Hatyai University</t>
+  </si>
+  <si>
+    <t>Assumption University of Thailand</t>
+  </si>
+  <si>
+    <t>Eastern Asia University</t>
+  </si>
+  <si>
+    <t>South East Asia University</t>
+  </si>
+  <si>
+    <t>Asian Institute of Technology</t>
+  </si>
+  <si>
+    <t>CMKL University</t>
+  </si>
+  <si>
+    <t>Amata University</t>
+  </si>
+  <si>
+    <t>Kasetsart University</t>
+  </si>
+  <si>
+    <t>Khon Kaen University</t>
+  </si>
+  <si>
+    <t>Chulalongkorn University</t>
+  </si>
+  <si>
+    <t>Chiang Mai University</t>
+  </si>
+  <si>
+    <t>King Mongkut's University of Technology Thonburi</t>
+  </si>
+  <si>
+    <t>King Mongkut's University of Technology North Bangkok</t>
+  </si>
+  <si>
+    <t>Suranaree University of Technology</t>
+  </si>
+  <si>
+    <t>Thammasat University</t>
+  </si>
+  <si>
+    <t>Burapha University</t>
+  </si>
+  <si>
+    <t>Mahidol University</t>
+  </si>
+  <si>
+    <t>Srinakharinwirot University</t>
+  </si>
+  <si>
+    <t>Silpakorn University</t>
+  </si>
+  <si>
+    <t>Prince of Songkla University</t>
+  </si>
+  <si>
+    <t>Thaksin University</t>
+  </si>
+  <si>
+    <t>Navamindradhiraj University</t>
+  </si>
+  <si>
+    <t>University of Phayao</t>
+  </si>
+  <si>
+    <t>Mahachulalongkornrajavidyalaya University</t>
+  </si>
+  <si>
+    <t>Mahamakut Buddhist University</t>
+  </si>
+  <si>
+    <t>Maejo University</t>
+  </si>
+  <si>
+    <t>Mae Fah Luang University</t>
+  </si>
+  <si>
+    <t>Walailak University</t>
+  </si>
+  <si>
+    <t>Suan Dusit University</t>
+  </si>
+  <si>
+    <t>King Mongkut's Institute of Technology Ladkrabang</t>
+  </si>
+  <si>
+    <t>Srisavarindhira Thai Red Cross Institute of Nursing</t>
+  </si>
+  <si>
+    <t>Princess Galyani Vadhana Institute of Music</t>
+  </si>
+  <si>
+    <t>Chitralada Technology Institute</t>
+  </si>
+  <si>
+    <t>Chulabhorn Graduate Institute</t>
+  </si>
+  <si>
+    <t>Naresuan University</t>
+  </si>
+  <si>
+    <t>Kalasin University</t>
+  </si>
+  <si>
+    <t>Nakhon Phanom University</t>
+  </si>
+  <si>
+    <t>Princess of Naradhiwas University</t>
+  </si>
+  <si>
+    <t>Mahasarakham University</t>
+  </si>
+  <si>
+    <t>Ramkhamhaeng University</t>
+  </si>
+  <si>
+    <t>Sukhothai Thammathirat Open University</t>
+  </si>
+  <si>
+    <t>Ubon Ratchathani University</t>
+  </si>
+  <si>
+    <t>National Institute of Development Administration</t>
+  </si>
+  <si>
+    <t>Pathumwan Institute of Technology</t>
+  </si>
+  <si>
+    <t>Kanchanaburi Rajabhat University</t>
+  </si>
+  <si>
+    <t>Kamphaengphet Rajabhat University</t>
+  </si>
+  <si>
+    <t>Chandrakasem Rajabhat University</t>
+  </si>
+  <si>
+    <t>Chaiyaphum Rajabhat University</t>
+  </si>
+  <si>
+    <t>Chiang Rai Rajabhat University</t>
+  </si>
+  <si>
+    <t>Chiang Mai Rajabhat University</t>
+  </si>
+  <si>
+    <t>Thepsatri Rajabhat University</t>
+  </si>
+  <si>
+    <t>Dhonburi Rajabhat University</t>
+  </si>
+  <si>
+    <t>Nakhon Pathom Rajabhat University</t>
+  </si>
+  <si>
+    <t>Nakhon Ratchasima Rajabhat University</t>
+  </si>
+  <si>
+    <t>Nakhon Si Thammarat Rajabhat University</t>
+  </si>
+  <si>
+    <t>Nakhon Sawan Rajabhat University</t>
+  </si>
+  <si>
+    <t>Bansomdejchaopraya Rajabhat University</t>
+  </si>
+  <si>
+    <t>Buriram Rajabhat University</t>
+  </si>
+  <si>
+    <t>Phranakhon Rajabhat University</t>
+  </si>
+  <si>
+    <t>Phranakhon Si Ayutthaya Rajabhat University</t>
+  </si>
+  <si>
+    <t>Pibulsongkram Rajabhat University</t>
+  </si>
+  <si>
+    <t>Phetchaburi Rajabhat University</t>
+  </si>
+  <si>
+    <t>Phetchabun Rajabhat University</t>
+  </si>
+  <si>
+    <t>Phuket Rajabhat University</t>
+  </si>
+  <si>
+    <t>Rajabhat Maha Sarakham University</t>
+  </si>
+  <si>
+    <t>Yala Rajabhat University</t>
+  </si>
+  <si>
+    <t>Roi Et Rajabhat University</t>
+  </si>
+  <si>
+    <t>Rajabhat Rajanagarindra University</t>
+  </si>
+  <si>
+    <t>Rambhai Barni Rajabhat University</t>
+  </si>
+  <si>
+    <t>Lampang Rajabhat University</t>
+  </si>
+  <si>
+    <t>Loei Rajabhat University</t>
+  </si>
+  <si>
+    <t>Valaya Alongkorn Rajabhat University under the Royal Patronage</t>
+  </si>
+  <si>
+    <t>Sisaket Rajabhat University</t>
+  </si>
+  <si>
+    <t>Sakon Nakhon Rajabhat University</t>
+  </si>
+  <si>
+    <t>Songkhla Rajabhat University</t>
+  </si>
+  <si>
+    <t>Suan Sunandha Rajabhat University</t>
+  </si>
+  <si>
+    <t>Suratthani Rajabhat University</t>
+  </si>
+  <si>
+    <t>Surindra Rajabhat University</t>
+  </si>
+  <si>
+    <t>Muban Chombueng Rajabhat University</t>
+  </si>
+  <si>
+    <t>Udon Thani Rajabhat University</t>
+  </si>
+  <si>
+    <t>Uttaradit Rajabhat University</t>
+  </si>
+  <si>
+    <t>Ubon Ratchathani Rajabhat University</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Krungthep</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Tawan-ok</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Thanyaburi</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Phra Nakhon</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Rattanakosin</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Lanna</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Srivijaya</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Suvarnabhumi</t>
+  </si>
+  <si>
+    <t>Rajamangala University of Technology Isan</t>
+  </si>
+  <si>
     <t>name_th</t>
   </si>
   <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
     <t>subtype_text</t>
   </si>
   <si>
     <t>subtype</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>BUU</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>KKU</t>
-  </si>
-  <si>
-    <t>KMITL</t>
-  </si>
-  <si>
-    <t>KMUTNB</t>
-  </si>
-  <si>
-    <t>KMUTT</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>RMU</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>SUT</t>
-  </si>
-  <si>
-    <t>SWU</t>
-  </si>
-  <si>
-    <t>TU</t>
   </si>
 </sst>
 </file>
@@ -3313,31 +3856,31 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF0CE763-16FE-4896-B69B-A744111DC284}" name="Table1" displayName="Table1" ref="A1:E199" totalsRowShown="0">
   <autoFilter ref="A1:E199" xr:uid="{0650E731-3BD5-44E3-AD5D-F07E114B7B88}"/>
-  <sortState ref="A2:D199">
+  <sortState ref="A2:E199">
     <sortCondition ref="C1:C199"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FF5F1F1B-FBE0-4C0E-95D4-10F615B331B5}" name="name_th"/>
+    <tableColumn id="2" xr3:uid="{0FA6B461-1C7A-4A89-851C-44BBB9C9A5B9}" name="name_en"/>
     <tableColumn id="4" xr3:uid="{C79F5DA3-4CA0-4D65-86D4-0A2658A53FF3}" name="subtype_text"/>
-    <tableColumn id="2" xr3:uid="{AE1B0F27-507E-470D-A8AC-DFB41DE5EEF8}" name="subtype" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{1CD844DA-269B-4A45-9641-07790B46920E}" name="subtype" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D80B5BB9-BA8D-4DD7-B249-5A9FEB0EF062}" name="remark"/>
-    <tableColumn id="5" xr3:uid="{BE8BBA56-468C-418B-A754-58B8C9CADDAF}" name="image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10B9F09C-166E-4596-A052-1DCFDA88BFE3}" name="Table13" displayName="Table13" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{0650E731-3BD5-44E3-AD5D-F07E114B7B88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42AE8DD2-CFC3-42E1-8FED-9C45846CFBB6}" name="Table13" displayName="Table13" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{0F88EDAF-8621-4FCB-94D2-A3A7EE2EB7EF}"/>
   <sortState ref="A2:B7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="4" xr3:uid="{597494BF-4600-4C99-949C-BEBB922E7B54}" name="subtype_text"/>
-    <tableColumn id="2" xr3:uid="{95DAED56-8AC7-467A-B764-16F16CF351AD}" name="subtype"/>
+    <tableColumn id="4" xr3:uid="{3E3831F4-973F-481C-A19F-50DA68CE6B75}" name="subtype_text"/>
+    <tableColumn id="2" xr3:uid="{38BFF835-AE73-4FDE-8F1A-8BFB010C83E6}" name="subtype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3643,7 +4186,7 @@
   <dimension ref="A1:A830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3653,7 +4196,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1034</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -7813,150 +8356,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54777062-7541-45FA-8504-632238C86CFC}">
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="N137" sqref="N137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>1034</v>
+        <v>1232</v>
       </c>
       <c r="B1" t="s">
-        <v>1035</v>
+        <v>1233</v>
       </c>
       <c r="C1" t="s">
-        <v>1036</v>
+        <v>1235</v>
       </c>
       <c r="D1" t="s">
-        <v>1037</v>
+        <v>1236</v>
       </c>
       <c r="E1" t="s">
-        <v>1038</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>987</v>
+        <v>943</v>
       </c>
       <c r="B2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C2" t="s">
         <v>1033</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C3" t="s">
         <v>1033</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C4" t="s">
         <v>1033</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C5" t="s">
         <v>1033</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C6" t="s">
         <v>1033</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C7" t="s">
         <v>1033</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C8" t="s">
         <v>1033</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="B9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C9" t="s">
         <v>1033</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C10" t="s">
         <v>1033</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C11" t="s">
         <v>1033</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
@@ -7966,9 +8540,12 @@
         <v>996</v>
       </c>
       <c r="B12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C12" t="s">
         <v>1033</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
@@ -7978,9 +8555,12 @@
         <v>997</v>
       </c>
       <c r="B13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" t="s">
         <v>1033</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
@@ -7990,9 +8570,12 @@
         <v>998</v>
       </c>
       <c r="B14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C14" t="s">
         <v>1033</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
@@ -8002,9 +8585,12 @@
         <v>999</v>
       </c>
       <c r="B15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C15" t="s">
         <v>1033</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
@@ -8014,1707 +8600,2067 @@
         <v>1000</v>
       </c>
       <c r="B16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C16" t="s">
         <v>1033</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>1001</v>
       </c>
       <c r="B17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C17" t="s">
         <v>1033</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>1002</v>
       </c>
       <c r="B18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C18" t="s">
         <v>1033</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>943</v>
+        <v>1003</v>
       </c>
       <c r="B19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C19" t="s">
         <v>1033</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C20" t="s">
         <v>1033</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>1005</v>
       </c>
       <c r="B21" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C21" t="s">
         <v>1033</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>986</v>
       </c>
       <c r="B22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C22" t="s">
         <v>1033</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>911</v>
       </c>
       <c r="B23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C23" t="s">
         <v>1032</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>912</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>913</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>914</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>915</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>901</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>902</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>903</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>904</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>905</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>906</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>881</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>882</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>883</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>884</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>885</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>886</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>887</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>888</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>889</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B59" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C59" t="s">
         <v>1032</v>
       </c>
-      <c r="C24">
+      <c r="D59">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>890</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>891</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B61" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C61" t="s">
         <v>1032</v>
       </c>
-      <c r="C25">
+      <c r="D61">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>881</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>892</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C62" t="s">
         <v>1032</v>
       </c>
-      <c r="C26">
+      <c r="D62">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>882</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>893</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C63" t="s">
         <v>1032</v>
       </c>
-      <c r="C27">
+      <c r="D63">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>883</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>894</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C64" t="s">
         <v>1032</v>
       </c>
-      <c r="C28">
+      <c r="D64">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>884</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>895</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C65" t="s">
         <v>1032</v>
       </c>
-      <c r="C29">
+      <c r="D65">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>885</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>896</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C66" t="s">
         <v>1032</v>
       </c>
-      <c r="C30">
+      <c r="D66">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>886</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>897</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C67" t="s">
         <v>1032</v>
       </c>
-      <c r="C31">
+      <c r="D67">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>887</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>898</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C68" t="s">
         <v>1032</v>
       </c>
-      <c r="C32">
+      <c r="D68">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>888</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>899</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C69" t="s">
         <v>1032</v>
       </c>
-      <c r="C33">
+      <c r="D69">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>890</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>900</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C70" t="s">
         <v>1032</v>
       </c>
-      <c r="C34">
+      <c r="D70">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>892</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C35">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>893</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C36">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>894</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C37">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>895</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C38">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>896</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C39">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>897</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C40">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>898</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C41">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>899</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C42">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>900</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C43">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>912</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C44">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>913</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C45">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>901</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C46">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>902</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C47">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>903</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C48">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>904</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C49">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>905</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C50">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C51">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C52">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C53">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C54">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C55">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C56">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C57">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C58">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C59">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C60">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C61">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C62">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>906</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C63">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C64">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C65">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C66">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C67">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C68">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>914</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C69">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>915</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C70">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>944</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D71">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>945</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>946</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>947</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D74">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>948</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C75" t="s">
         <v>1031</v>
       </c>
-      <c r="C71">
+      <c r="D75">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>949</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C76" t="s">
         <v>1031</v>
       </c>
-      <c r="C72">
+      <c r="D76">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>950</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D77">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>951</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D78">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>952</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>953</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B80" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C80" t="s">
         <v>1031</v>
       </c>
-      <c r="C73">
+      <c r="D80">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>951</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>954</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C81" t="s">
         <v>1031</v>
       </c>
-      <c r="C74">
+      <c r="D81">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>955</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B82" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C82" t="s">
         <v>1031</v>
       </c>
-      <c r="C75">
+      <c r="D82">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>956</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B83" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C83" t="s">
         <v>1031</v>
       </c>
-      <c r="C76">
+      <c r="D83">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>957</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>958</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>959</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D86">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>960</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D87">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>961</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D88">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>962</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D89">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>963</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B90" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C90" t="s">
         <v>1031</v>
       </c>
-      <c r="C77">
+      <c r="D90">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>964</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D91">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>965</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D92">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>966</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D93">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>967</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D94">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>968</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D95">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>969</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D96">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>970</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D97">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>971</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D98">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>972</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D99">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>973</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D100">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>974</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D101">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>975</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D102">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
         <v>976</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B103" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C103" t="s">
         <v>1031</v>
       </c>
-      <c r="C78">
+      <c r="D103">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
         <v>977</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B104" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C104" t="s">
         <v>1031</v>
       </c>
-      <c r="C79">
+      <c r="D104">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>978</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D105">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>979</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D106">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>980</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D107">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>981</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D108">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>982</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D109">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>983</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D110">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>984</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D111">
+        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
         <v>985</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B112" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C112" t="s">
         <v>1031</v>
       </c>
-      <c r="C80">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>944</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C81">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>945</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C82">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>946</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C83">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>947</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C84">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>950</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C85">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>954</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C86">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C87">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>952</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C88">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>957</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C89">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>958</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C90">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>960</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C91">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>959</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C92">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>962</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C93">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>961</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C94">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>964</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C95">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>965</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C96">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>966</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C97">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>967</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C98">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>968</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C99">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>969</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C100">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>970</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C101">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>971</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C102">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>972</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C103">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>973</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C104">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>974</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C105">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>975</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C106">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>978</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C107">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>979</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C108">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>980</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C109">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>981</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C110">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>982</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C111">
-        <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C112">
+      <c r="D112">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>983</v>
+        <v>1006</v>
       </c>
       <c r="B113" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C113" t="s">
         <v>1031</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="B114" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C114" t="s">
         <v>1031</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B115" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C115" t="s">
         <v>1031</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B116" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C116" t="s">
         <v>1029</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>1027</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B117" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C117" t="s">
         <v>1029</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>1027</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B118" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C118" t="s">
         <v>1029</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>1027</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B119" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C119" t="s">
         <v>1029</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>1027</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B120" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C120" t="s">
         <v>1029</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>1027</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B121" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C121" t="s">
         <v>1029</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>1027</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B122" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C122" t="s">
         <v>1029</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B123" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C123" t="s">
         <v>1029</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>824</v>
+        <v>926</v>
       </c>
       <c r="B124" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C124" t="s">
         <v>1029</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
       <c r="B125" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C125" t="s">
         <v>1029</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>1027</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="B126" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C126" t="s">
         <v>1029</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="B127" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C127" t="s">
         <v>1029</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>1027</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>827</v>
+        <v>936</v>
       </c>
       <c r="B128" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C128" t="s">
         <v>1029</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>1027</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>825</v>
+        <v>920</v>
       </c>
       <c r="B129" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C129" t="s">
         <v>1029</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>826</v>
+        <v>925</v>
       </c>
       <c r="B130" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C130" t="s">
         <v>1029</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B131" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C131" t="s">
         <v>1029</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B132" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C132" t="s">
         <v>1029</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B133" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C133" t="s">
         <v>1029</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B134" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C134" t="s">
         <v>1029</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B135" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C135" t="s">
         <v>1029</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>828</v>
+        <v>933</v>
       </c>
       <c r="B136" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C136" t="s">
         <v>1029</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="B137" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C137" t="s">
         <v>1029</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
       <c r="B138" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C138" t="s">
         <v>1029</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B139" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C139" t="s">
         <v>1029</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="B140" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C140" t="s">
         <v>1029</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B141" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C141" t="s">
         <v>1029</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="B142" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C142" t="s">
         <v>1029</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>937</v>
+        <v>827</v>
       </c>
       <c r="B143" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C143" t="s">
         <v>1029</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B144" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C144" t="s">
         <v>1029</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B145" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C145" t="s">
         <v>1029</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>940</v>
+        <v>826</v>
       </c>
       <c r="B146" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C146" t="s">
         <v>1029</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B147" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C147" t="s">
         <v>1029</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>941</v>
+        <v>829</v>
       </c>
       <c r="B148" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C148" t="s">
         <v>1029</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>938</v>
+        <v>830</v>
       </c>
       <c r="B149" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C149" t="s">
         <v>1029</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>939</v>
+        <v>831</v>
       </c>
       <c r="B150" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C150" t="s">
         <v>1029</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
@@ -9724,509 +10670,515 @@
         <v>832</v>
       </c>
       <c r="B151" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C151" t="s">
         <v>1029</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>942</v>
+        <v>833</v>
       </c>
       <c r="B152" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C152" t="s">
         <v>1029</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B153" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C153" t="s">
         <v>1030</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>1027</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B154" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C154" t="s">
         <v>1030</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>1027</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B155" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C155" t="s">
         <v>1030</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>1027</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="B156" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C156" t="s">
         <v>1030</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>1027</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="B157" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C157" t="s">
         <v>1030</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>1027</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="B158" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C158" t="s">
         <v>1030</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>1027</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B159" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C159" t="s">
         <v>1030</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>1027</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="B160" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C160" t="s">
         <v>1030</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>1027</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B161" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C161" t="s">
         <v>1030</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>1027</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B162" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C162" t="s">
         <v>1030</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>1027</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B163" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C163" t="s">
         <v>1030</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>1027</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B164" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C164" t="s">
         <v>1030</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>1027</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B165" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C165" t="s">
         <v>1030</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>1027</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B166" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C166" t="s">
         <v>1030</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>1027</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B167" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C167" t="s">
         <v>1030</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>1027</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B168" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C168" t="s">
         <v>1030</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>1027</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B169" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C169" t="s">
         <v>1030</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>1027</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B170" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C170" t="s">
         <v>1030</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>1027</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B171" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C171" t="s">
         <v>1030</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>1027</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B172" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C172" t="s">
         <v>1030</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>1027</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B173" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C173" t="s">
         <v>1030</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>1027</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B174" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C174" t="s">
         <v>1030</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>1027</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B175" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C175" t="s">
         <v>1030</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>1027</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B176" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C176" t="s">
         <v>1030</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>1027</v>
-      </c>
-      <c r="E176" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B177" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C177" t="s">
         <v>1030</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>1027</v>
-      </c>
-      <c r="E177" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B178" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C178" t="s">
         <v>1030</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>1027</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B179" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C179" t="s">
         <v>1030</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>1027</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -10234,17 +11186,17 @@
         <v>861</v>
       </c>
       <c r="B180" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C180" t="s">
         <v>1030</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>1027</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -10252,17 +11204,17 @@
         <v>862</v>
       </c>
       <c r="B181" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C181" t="s">
         <v>1030</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>1027</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -10270,17 +11222,17 @@
         <v>863</v>
       </c>
       <c r="B182" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C182" t="s">
         <v>1030</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>1027</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -10288,17 +11240,17 @@
         <v>864</v>
       </c>
       <c r="B183" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C183" t="s">
         <v>1030</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>1027</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -10306,17 +11258,17 @@
         <v>865</v>
       </c>
       <c r="B184" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C184" t="s">
         <v>1030</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>1027</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -10324,17 +11276,17 @@
         <v>866</v>
       </c>
       <c r="B185" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C185" t="s">
         <v>1030</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>1027</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10342,17 +11294,17 @@
         <v>867</v>
       </c>
       <c r="B186" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C186" t="s">
         <v>1030</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>1027</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10360,17 +11312,17 @@
         <v>868</v>
       </c>
       <c r="B187" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C187" t="s">
         <v>1030</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>1027</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -10378,17 +11330,17 @@
         <v>869</v>
       </c>
       <c r="B188" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C188" t="s">
         <v>1030</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>1027</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -10396,17 +11348,17 @@
         <v>870</v>
       </c>
       <c r="B189" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C189" t="s">
         <v>1030</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>1027</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -10414,17 +11366,17 @@
         <v>871</v>
       </c>
       <c r="B190" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C190" t="s">
         <v>1030</v>
       </c>
-      <c r="C190">
+      <c r="D190">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>1027</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -10432,17 +11384,17 @@
         <v>872</v>
       </c>
       <c r="B191" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C191" t="s">
         <v>1028</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>1027</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -10450,17 +11402,17 @@
         <v>873</v>
       </c>
       <c r="B192" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C192" t="s">
         <v>1028</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>1027</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -10468,17 +11420,17 @@
         <v>874</v>
       </c>
       <c r="B193" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C193" t="s">
         <v>1028</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>1027</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -10486,17 +11438,17 @@
         <v>875</v>
       </c>
       <c r="B194" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C194" t="s">
         <v>1028</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>1027</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -10504,17 +11456,17 @@
         <v>876</v>
       </c>
       <c r="B195" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C195" t="s">
         <v>1028</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>1027</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -10522,17 +11474,17 @@
         <v>877</v>
       </c>
       <c r="B196" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C196" t="s">
         <v>1028</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>1027</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -10540,17 +11492,17 @@
         <v>878</v>
       </c>
       <c r="B197" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C197" t="s">
         <v>1028</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>1027</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -10558,17 +11510,17 @@
         <v>879</v>
       </c>
       <c r="B198" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C198" t="s">
         <v>1028</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>1027</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -10576,98 +11528,118 @@
         <v>880</v>
       </c>
       <c r="B199" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C199" t="s">
         <v>1028</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>1027</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10679,25 +11651,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278EB765-2EA2-41EB-87E7-BE4C9F6874FA}">
-  <dimension ref="A1:B219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E92788F-72D4-4A3D-9C1B-E0D4ED4505D4}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1035</v>
+        <v>1235</v>
       </c>
       <c r="B1" t="s">
-        <v>1036</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10748,71 +11720,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/database/seeds/csvs/schools-universities.xlsx
+++ b/database/seeds/csvs/schools-universities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760FB62-E944-4ADF-ACD2-21305AFD179D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BC187F-4626-404A-AB20-0574744CD48D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C55A2BD8-7250-4E84-8D4E-BA2B9FD21431}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1255">
   <si>
     <t>โรงเรียนยะหาศิรยานุกูล</t>
   </si>
@@ -3738,6 +3738,60 @@
   </si>
   <si>
     <t>subtype</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>KMITL</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>RMU</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>KKU</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>KMUTT</t>
+  </si>
+  <si>
+    <t>KMUTNB</t>
+  </si>
+  <si>
+    <t>SUT</t>
+  </si>
+  <si>
+    <t>BUU</t>
+  </si>
+  <si>
+    <t>SWU</t>
   </si>
 </sst>
 </file>
@@ -3854,12 +3908,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF0CE763-16FE-4896-B69B-A744111DC284}" name="Table1" displayName="Table1" ref="A1:E199" totalsRowShown="0">
-  <autoFilter ref="A1:E199" xr:uid="{0650E731-3BD5-44E3-AD5D-F07E114B7B88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF0CE763-16FE-4896-B69B-A744111DC284}" name="Table1" displayName="Table1" ref="A1:F199" totalsRowShown="0">
+  <autoFilter ref="A1:F199" xr:uid="{0650E731-3BD5-44E3-AD5D-F07E114B7B88}"/>
   <sortState ref="A2:E199">
     <sortCondition ref="C1:C199"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FF5F1F1B-FBE0-4C0E-95D4-10F615B331B5}" name="name_th"/>
     <tableColumn id="2" xr3:uid="{0FA6B461-1C7A-4A89-851C-44BBB9C9A5B9}" name="name_en"/>
     <tableColumn id="4" xr3:uid="{C79F5DA3-4CA0-4D65-86D4-0A2658A53FF3}" name="subtype_text"/>
@@ -3867,6 +3921,7 @@
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D80B5BB9-BA8D-4DD7-B249-5A9FEB0EF062}" name="remark"/>
+    <tableColumn id="6" xr3:uid="{EC19D0F4-5952-4EC1-B74A-D1912951DCFC}" name="image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8354,10 +8409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54777062-7541-45FA-8504-632238C86CFC}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8368,7 +8423,7 @@
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1232</v>
       </c>
@@ -8384,8 +8439,11 @@
       <c r="E1" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>943</v>
       </c>
@@ -8400,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>987</v>
       </c>
@@ -8415,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>988</v>
       </c>
@@ -8430,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>989</v>
       </c>
@@ -8445,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>990</v>
       </c>
@@ -8460,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>991</v>
       </c>
@@ -8475,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>992</v>
       </c>
@@ -8490,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>993</v>
       </c>
@@ -8505,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>994</v>
       </c>
@@ -8520,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>995</v>
       </c>
@@ -8535,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>996</v>
       </c>
@@ -8550,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>997</v>
       </c>
@@ -8565,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>998</v>
       </c>
@@ -8580,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>999</v>
       </c>
@@ -8595,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>1000</v>
       </c>
@@ -10050,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>1006</v>
       </c>
@@ -10065,7 +10123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>1007</v>
       </c>
@@ -10080,7 +10138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>1008</v>
       </c>
@@ -10095,7 +10153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>916</v>
       </c>
@@ -10112,8 +10170,11 @@
       <c r="E116" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>917</v>
       </c>
@@ -10130,8 +10191,11 @@
       <c r="E117" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>918</v>
       </c>
@@ -10148,8 +10212,11 @@
       <c r="E118" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>919</v>
       </c>
@@ -10166,8 +10233,11 @@
       <c r="E119" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>921</v>
       </c>
@@ -10184,8 +10254,11 @@
       <c r="E120" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>922</v>
       </c>
@@ -10202,8 +10275,11 @@
       <c r="E121" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>923</v>
       </c>
@@ -10220,8 +10296,11 @@
       <c r="E122" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>924</v>
       </c>
@@ -10238,8 +10317,11 @@
       <c r="E123" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>926</v>
       </c>
@@ -10256,8 +10338,11 @@
       <c r="E124" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>930</v>
       </c>
@@ -10274,8 +10359,11 @@
       <c r="E125" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>934</v>
       </c>
@@ -10292,8 +10380,11 @@
       <c r="E126" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>935</v>
       </c>
@@ -10310,8 +10401,11 @@
       <c r="E127" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>936</v>
       </c>
@@ -10328,8 +10422,11 @@
       <c r="E128" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>920</v>
       </c>
@@ -10344,7 +10441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>925</v>
       </c>
@@ -10359,7 +10456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>927</v>
       </c>
@@ -10374,7 +10471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>928</v>
       </c>
@@ -10389,7 +10486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>929</v>
       </c>
@@ -10404,7 +10501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>931</v>
       </c>
@@ -10419,7 +10516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>932</v>
       </c>
@@ -10434,7 +10531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>933</v>
       </c>
@@ -10449,7 +10546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>937</v>
       </c>
@@ -10464,7 +10561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>941</v>
       </c>
@@ -10481,8 +10578,11 @@
       <c r="E138" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>938</v>
       </c>
@@ -10497,7 +10597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>939</v>
       </c>
@@ -10512,7 +10612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>940</v>
       </c>
@@ -10527,7 +10627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>942</v>
       </c>
@@ -10542,7 +10642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>827</v>
       </c>
@@ -10559,8 +10659,11 @@
       <c r="E143" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>824</v>
       </c>
@@ -10575,7 +10678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>825</v>
       </c>
@@ -10590,7 +10693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>826</v>
       </c>
@@ -10605,7 +10708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>828</v>
       </c>
@@ -10620,7 +10723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>829</v>
       </c>
@@ -10635,7 +10738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>830</v>
       </c>
@@ -10650,7 +10753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>831</v>
       </c>
@@ -10665,7 +10768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>832</v>
       </c>
@@ -10680,7 +10783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>833</v>
       </c>
@@ -10695,7 +10798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>834</v>
       </c>
@@ -10712,8 +10815,11 @@
       <c r="E153" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>835</v>
       </c>
@@ -10730,8 +10836,11 @@
       <c r="E154" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>836</v>
       </c>
@@ -10748,8 +10857,11 @@
       <c r="E155" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>837</v>
       </c>
@@ -10766,8 +10878,11 @@
       <c r="E156" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>838</v>
       </c>
@@ -10784,8 +10899,11 @@
       <c r="E157" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>839</v>
       </c>
@@ -10802,8 +10920,11 @@
       <c r="E158" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>840</v>
       </c>
@@ -10820,8 +10941,11 @@
       <c r="E159" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>841</v>
       </c>
@@ -10838,8 +10962,11 @@
       <c r="E160" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>842</v>
       </c>
@@ -10856,8 +10983,11 @@
       <c r="E161" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>843</v>
       </c>
@@ -10874,8 +11004,11 @@
       <c r="E162" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>844</v>
       </c>
@@ -10892,8 +11025,11 @@
       <c r="E163" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>845</v>
       </c>
@@ -10910,8 +11046,11 @@
       <c r="E164" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>846</v>
       </c>
@@ -10928,8 +11067,11 @@
       <c r="E165" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>847</v>
       </c>
@@ -10946,8 +11088,11 @@
       <c r="E166" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>848</v>
       </c>
@@ -10964,8 +11109,11 @@
       <c r="E167" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>849</v>
       </c>
@@ -10982,8 +11130,11 @@
       <c r="E168" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>850</v>
       </c>
@@ -11000,8 +11151,11 @@
       <c r="E169" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>851</v>
       </c>
@@ -11018,8 +11172,11 @@
       <c r="E170" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>852</v>
       </c>
@@ -11036,8 +11193,11 @@
       <c r="E171" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>853</v>
       </c>
@@ -11054,8 +11214,11 @@
       <c r="E172" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>854</v>
       </c>
@@ -11072,8 +11235,11 @@
       <c r="E173" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>855</v>
       </c>
@@ -11090,8 +11256,11 @@
       <c r="E174" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>856</v>
       </c>
@@ -11108,8 +11277,11 @@
       <c r="E175" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>857</v>
       </c>
@@ -11126,8 +11298,11 @@
       <c r="E176" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>858</v>
       </c>
@@ -11144,8 +11319,11 @@
       <c r="E177" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>859</v>
       </c>
@@ -11162,8 +11340,11 @@
       <c r="E178" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>860</v>
       </c>
@@ -11180,8 +11361,11 @@
       <c r="E179" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>861</v>
       </c>
@@ -11198,8 +11382,11 @@
       <c r="E180" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>862</v>
       </c>
@@ -11216,8 +11403,11 @@
       <c r="E181" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>863</v>
       </c>
@@ -11234,8 +11424,11 @@
       <c r="E182" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>864</v>
       </c>
@@ -11252,8 +11445,11 @@
       <c r="E183" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>865</v>
       </c>
@@ -11270,8 +11466,11 @@
       <c r="E184" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>866</v>
       </c>
@@ -11288,8 +11487,11 @@
       <c r="E185" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>867</v>
       </c>
@@ -11306,8 +11508,11 @@
       <c r="E186" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>868</v>
       </c>
@@ -11324,8 +11529,11 @@
       <c r="E187" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>869</v>
       </c>
@@ -11342,8 +11550,11 @@
       <c r="E188" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>870</v>
       </c>
@@ -11360,8 +11571,11 @@
       <c r="E189" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>871</v>
       </c>
@@ -11378,8 +11592,11 @@
       <c r="E190" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>872</v>
       </c>
@@ -11396,8 +11613,11 @@
       <c r="E191" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>873</v>
       </c>
@@ -11414,8 +11634,11 @@
       <c r="E192" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>874</v>
       </c>
@@ -11432,8 +11655,11 @@
       <c r="E193" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>875</v>
       </c>
@@ -11450,8 +11676,11 @@
       <c r="E194" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>876</v>
       </c>
@@ -11468,8 +11697,11 @@
       <c r="E195" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>877</v>
       </c>
@@ -11486,8 +11718,11 @@
       <c r="E196" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>878</v>
       </c>
@@ -11504,8 +11739,11 @@
       <c r="E197" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>879</v>
       </c>
@@ -11522,8 +11760,11 @@
       <c r="E198" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>880</v>
       </c>
@@ -11540,48 +11781,51 @@
       <c r="E199" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:6">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:6">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:6">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:6">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>

--- a/database/seeds/csvs/schools-universities.xlsx
+++ b/database/seeds/csvs/schools-universities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BC187F-4626-404A-AB20-0574744CD48D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A6E810-5142-475D-9C99-3C252AB274B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C55A2BD8-7250-4E84-8D4E-BA2B9FD21431}"/>
   </bookViews>
@@ -2855,9 +2855,6 @@
     <t>สถาบันเทคโนโลยีพระจอมเกล้าเจ้าคุณทหารลาดกระบัง</t>
   </si>
   <si>
-    <t>สถาบันบัณฑิตศึกษาจุฬาภรณ์ (สังกัดราชวิทยาลัยจุฬาภรณ์)</t>
-  </si>
-  <si>
     <t>วิทยาลัยวิทยาศาสตร์การแพทย์เจ้าฟ้าจุฬาภรณ์</t>
   </si>
   <si>
@@ -3792,6 +3789,9 @@
   </si>
   <si>
     <t>SWU</t>
+  </si>
+  <si>
+    <t>สถาบันบัณฑิตศึกษาจุฬาภรณ์ (สังกัดราชวิทยาลัยจุฬาภรณ์)</t>
   </si>
 </sst>
 </file>
@@ -4251,7 +4251,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4566,7 +4566,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -8412,7 +8412,7 @@
   <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8425,33 +8425,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1" t="s">
         <v>1232</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1" t="s">
         <v>1233</v>
       </c>
-      <c r="C1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1236</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8460,13 +8460,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8475,13 +8475,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8490,13 +8490,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8505,13 +8505,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8520,13 +8520,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D7">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8535,13 +8535,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8550,13 +8550,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8565,13 +8565,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8580,13 +8580,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8595,13 +8595,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8610,13 +8610,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8625,13 +8625,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8640,13 +8640,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B15" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8655,13 +8655,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8670,13 +8670,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B17" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C17" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8685,13 +8685,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C18" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8700,13 +8700,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8715,13 +8715,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8730,13 +8730,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C21" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8745,13 +8745,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B22" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C22" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8763,10 +8763,10 @@
         <v>911</v>
       </c>
       <c r="B23" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C23" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8778,10 +8778,10 @@
         <v>912</v>
       </c>
       <c r="B24" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C24" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8793,10 +8793,10 @@
         <v>913</v>
       </c>
       <c r="B25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8808,10 +8808,10 @@
         <v>914</v>
       </c>
       <c r="B26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C26" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8823,10 +8823,10 @@
         <v>915</v>
       </c>
       <c r="B27" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C27" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8838,10 +8838,10 @@
         <v>901</v>
       </c>
       <c r="B28" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C28" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8853,10 +8853,10 @@
         <v>902</v>
       </c>
       <c r="B29" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8868,10 +8868,10 @@
         <v>903</v>
       </c>
       <c r="B30" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C30" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8883,10 +8883,10 @@
         <v>904</v>
       </c>
       <c r="B31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8898,10 +8898,10 @@
         <v>905</v>
       </c>
       <c r="B32" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C32" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8910,13 +8910,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C33" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8925,13 +8925,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8940,13 +8940,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8955,13 +8955,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C36" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8970,13 +8970,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B37" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C37" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8985,13 +8985,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9000,13 +9000,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9015,13 +9015,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B40" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B41" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C41" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9045,13 +9045,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B42" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C42" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9060,13 +9060,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B43" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C43" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9075,13 +9075,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B44" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9093,10 +9093,10 @@
         <v>906</v>
       </c>
       <c r="B45" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C45" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9105,13 +9105,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B46" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C46" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9120,13 +9120,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B47" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C47" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9135,13 +9135,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B48" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C48" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9150,13 +9150,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B49" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C49" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9165,13 +9165,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B50" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C50" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9183,10 +9183,10 @@
         <v>881</v>
       </c>
       <c r="B51" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C51" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9198,10 +9198,10 @@
         <v>882</v>
       </c>
       <c r="B52" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C52" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9213,10 +9213,10 @@
         <v>883</v>
       </c>
       <c r="B53" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C53" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9228,10 +9228,10 @@
         <v>884</v>
       </c>
       <c r="B54" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C54" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9243,10 +9243,10 @@
         <v>885</v>
       </c>
       <c r="B55" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C55" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9258,10 +9258,10 @@
         <v>886</v>
       </c>
       <c r="B56" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9273,10 +9273,10 @@
         <v>887</v>
       </c>
       <c r="B57" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C57" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9288,10 +9288,10 @@
         <v>888</v>
       </c>
       <c r="B58" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C58" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9303,10 +9303,10 @@
         <v>889</v>
       </c>
       <c r="B59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C59" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9318,10 +9318,10 @@
         <v>890</v>
       </c>
       <c r="B60" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C60" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9333,10 +9333,10 @@
         <v>891</v>
       </c>
       <c r="B61" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C61" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9348,10 +9348,10 @@
         <v>892</v>
       </c>
       <c r="B62" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C62" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9363,10 +9363,10 @@
         <v>893</v>
       </c>
       <c r="B63" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C63" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9378,10 +9378,10 @@
         <v>894</v>
       </c>
       <c r="B64" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C64" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9393,10 +9393,10 @@
         <v>895</v>
       </c>
       <c r="B65" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C65" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9408,10 +9408,10 @@
         <v>896</v>
       </c>
       <c r="B66" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C66" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9423,10 +9423,10 @@
         <v>897</v>
       </c>
       <c r="B67" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C67" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D67">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9438,10 +9438,10 @@
         <v>898</v>
       </c>
       <c r="B68" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C68" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D68">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9453,10 +9453,10 @@
         <v>899</v>
       </c>
       <c r="B69" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C69" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D69">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9468,10 +9468,10 @@
         <v>900</v>
       </c>
       <c r="B70" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C70" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D70">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9480,13 +9480,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B71" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C71" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D71">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9495,13 +9495,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B72" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C72" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D72">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9510,13 +9510,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B73" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C73" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D73">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9525,13 +9525,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B74" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C74" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9540,13 +9540,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B75" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C75" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D75">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9555,13 +9555,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B76" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C76" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D76">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9570,13 +9570,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B77" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C77" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9585,13 +9585,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B78" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C78" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D78">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9600,13 +9600,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B79" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C79" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D79">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9615,13 +9615,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B80" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C80" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D80">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9630,13 +9630,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B81" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C81" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D81">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9645,13 +9645,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B82" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C82" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9660,13 +9660,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B83" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C83" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9675,13 +9675,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B84" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C84" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D84">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9690,13 +9690,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B85" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C85" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9705,13 +9705,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B86" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C86" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9720,13 +9720,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B87" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C87" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9735,13 +9735,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B88" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C88" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D88">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9750,13 +9750,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B89" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C89" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9765,13 +9765,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B90" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C90" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9780,13 +9780,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B91" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C91" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9795,13 +9795,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B92" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C92" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D92">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9810,13 +9810,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B93" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C93" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9825,13 +9825,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B94" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C94" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9840,13 +9840,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B95" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C95" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9855,13 +9855,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B96" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C96" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D96">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B97" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C97" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D97">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9885,13 +9885,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B98" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C98" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D98">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9900,13 +9900,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B99" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C99" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D99">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9915,13 +9915,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B100" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C100" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D100">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9930,13 +9930,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B101" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C101" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D101">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9945,13 +9945,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B102" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C102" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9960,13 +9960,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B103" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C103" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9975,13 +9975,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B104" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C104" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D104">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9990,13 +9990,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B105" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C105" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D105">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10005,13 +10005,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B106" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C106" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D106">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10020,13 +10020,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B107" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C107" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D107">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10035,13 +10035,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B108" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C108" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D108">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10050,13 +10050,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B109" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C109" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D109">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10065,13 +10065,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B110" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C110" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D110">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10080,13 +10080,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B111" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C111" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D111">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10095,13 +10095,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B112" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C112" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D112">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10110,13 +10110,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B113" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C113" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D113">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10125,13 +10125,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B114" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C114" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D114">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10140,13 +10140,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B115" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C115" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D115">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10158,20 +10158,20 @@
         <v>916</v>
       </c>
       <c r="B116" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C116" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D116">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F116" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -10179,20 +10179,20 @@
         <v>917</v>
       </c>
       <c r="B117" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C117" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D117">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F117" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10200,20 +10200,20 @@
         <v>918</v>
       </c>
       <c r="B118" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C118" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D118">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F118" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -10221,20 +10221,20 @@
         <v>919</v>
       </c>
       <c r="B119" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C119" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D119">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F119" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -10242,20 +10242,20 @@
         <v>921</v>
       </c>
       <c r="B120" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C120" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D120">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F120" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10263,20 +10263,20 @@
         <v>922</v>
       </c>
       <c r="B121" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C121" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D121">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F121" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10284,20 +10284,20 @@
         <v>923</v>
       </c>
       <c r="B122" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C122" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F122" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -10305,20 +10305,20 @@
         <v>924</v>
       </c>
       <c r="B123" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C123" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F123" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10326,20 +10326,20 @@
         <v>926</v>
       </c>
       <c r="B124" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C124" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F124" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -10347,20 +10347,20 @@
         <v>930</v>
       </c>
       <c r="B125" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C125" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F125" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10368,20 +10368,20 @@
         <v>934</v>
       </c>
       <c r="B126" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C126" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F126" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -10389,20 +10389,20 @@
         <v>935</v>
       </c>
       <c r="B127" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C127" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D127">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F127" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -10410,20 +10410,20 @@
         <v>936</v>
       </c>
       <c r="B128" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C128" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F128" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -10431,10 +10431,10 @@
         <v>920</v>
       </c>
       <c r="B129" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C129" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10446,10 +10446,10 @@
         <v>925</v>
       </c>
       <c r="B130" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C130" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10461,10 +10461,10 @@
         <v>927</v>
       </c>
       <c r="B131" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C131" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10476,10 +10476,10 @@
         <v>928</v>
       </c>
       <c r="B132" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C132" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D132">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10491,10 +10491,10 @@
         <v>929</v>
       </c>
       <c r="B133" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C133" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10506,10 +10506,10 @@
         <v>931</v>
       </c>
       <c r="B134" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C134" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10521,10 +10521,10 @@
         <v>932</v>
       </c>
       <c r="B135" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C135" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D135">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10536,10 +10536,10 @@
         <v>933</v>
       </c>
       <c r="B136" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C136" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10551,10 +10551,10 @@
         <v>937</v>
       </c>
       <c r="B137" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C137" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10566,20 +10566,20 @@
         <v>941</v>
       </c>
       <c r="B138" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C138" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F138" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -10587,10 +10587,10 @@
         <v>938</v>
       </c>
       <c r="B139" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C139" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10602,10 +10602,10 @@
         <v>939</v>
       </c>
       <c r="B140" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C140" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10617,10 +10617,10 @@
         <v>940</v>
       </c>
       <c r="B141" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C141" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10629,13 +10629,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>942</v>
+        <v>1254</v>
       </c>
       <c r="B142" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C142" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10647,20 +10647,20 @@
         <v>827</v>
       </c>
       <c r="B143" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C143" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F143" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -10668,10 +10668,10 @@
         <v>824</v>
       </c>
       <c r="B144" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C144" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D144">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10683,10 +10683,10 @@
         <v>825</v>
       </c>
       <c r="B145" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C145" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10698,10 +10698,10 @@
         <v>826</v>
       </c>
       <c r="B146" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C146" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10713,10 +10713,10 @@
         <v>828</v>
       </c>
       <c r="B147" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C147" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10728,10 +10728,10 @@
         <v>829</v>
       </c>
       <c r="B148" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C148" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10743,10 +10743,10 @@
         <v>830</v>
       </c>
       <c r="B149" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C149" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10758,10 +10758,10 @@
         <v>831</v>
       </c>
       <c r="B150" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C150" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10773,10 +10773,10 @@
         <v>832</v>
       </c>
       <c r="B151" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C151" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10788,10 +10788,10 @@
         <v>833</v>
       </c>
       <c r="B152" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C152" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10803,20 +10803,20 @@
         <v>834</v>
       </c>
       <c r="B153" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C153" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F153" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -10824,20 +10824,20 @@
         <v>835</v>
       </c>
       <c r="B154" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C154" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F154" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -10845,20 +10845,20 @@
         <v>836</v>
       </c>
       <c r="B155" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C155" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F155" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -10866,20 +10866,20 @@
         <v>837</v>
       </c>
       <c r="B156" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C156" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F156" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -10887,20 +10887,20 @@
         <v>838</v>
       </c>
       <c r="B157" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C157" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F157" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -10908,20 +10908,20 @@
         <v>839</v>
       </c>
       <c r="B158" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C158" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F158" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -10929,20 +10929,20 @@
         <v>840</v>
       </c>
       <c r="B159" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C159" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F159" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -10950,20 +10950,20 @@
         <v>841</v>
       </c>
       <c r="B160" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C160" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D160">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F160" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -10971,20 +10971,20 @@
         <v>842</v>
       </c>
       <c r="B161" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C161" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F161" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -10992,20 +10992,20 @@
         <v>843</v>
       </c>
       <c r="B162" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C162" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F162" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -11013,20 +11013,20 @@
         <v>844</v>
       </c>
       <c r="B163" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C163" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F163" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -11034,20 +11034,20 @@
         <v>845</v>
       </c>
       <c r="B164" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C164" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E164" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F164" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -11055,20 +11055,20 @@
         <v>846</v>
       </c>
       <c r="B165" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C165" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F165" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -11076,20 +11076,20 @@
         <v>847</v>
       </c>
       <c r="B166" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C166" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F166" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -11097,20 +11097,20 @@
         <v>848</v>
       </c>
       <c r="B167" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C167" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D167">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F167" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -11118,20 +11118,20 @@
         <v>849</v>
       </c>
       <c r="B168" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C168" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F168" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -11139,20 +11139,20 @@
         <v>850</v>
       </c>
       <c r="B169" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C169" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D169">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F169" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11160,20 +11160,20 @@
         <v>851</v>
       </c>
       <c r="B170" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C170" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D170">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F170" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -11181,20 +11181,20 @@
         <v>852</v>
       </c>
       <c r="B171" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C171" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F171" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -11202,20 +11202,20 @@
         <v>853</v>
       </c>
       <c r="B172" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C172" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F172" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -11223,20 +11223,20 @@
         <v>854</v>
       </c>
       <c r="B173" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C173" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D173">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F173" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -11244,20 +11244,20 @@
         <v>855</v>
       </c>
       <c r="B174" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C174" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D174">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F174" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -11265,20 +11265,20 @@
         <v>856</v>
       </c>
       <c r="B175" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C175" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F175" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -11286,20 +11286,20 @@
         <v>857</v>
       </c>
       <c r="B176" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C176" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D176">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F176" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -11307,20 +11307,20 @@
         <v>858</v>
       </c>
       <c r="B177" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C177" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F177" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -11328,20 +11328,20 @@
         <v>859</v>
       </c>
       <c r="B178" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C178" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F178" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -11349,20 +11349,20 @@
         <v>860</v>
       </c>
       <c r="B179" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C179" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F179" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -11370,20 +11370,20 @@
         <v>861</v>
       </c>
       <c r="B180" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C180" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D180">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F180" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -11391,20 +11391,20 @@
         <v>862</v>
       </c>
       <c r="B181" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C181" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F181" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -11412,20 +11412,20 @@
         <v>863</v>
       </c>
       <c r="B182" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C182" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F182" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -11433,20 +11433,20 @@
         <v>864</v>
       </c>
       <c r="B183" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C183" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F183" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -11454,20 +11454,20 @@
         <v>865</v>
       </c>
       <c r="B184" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C184" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F184" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -11475,20 +11475,20 @@
         <v>866</v>
       </c>
       <c r="B185" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C185" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D185">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F185" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -11496,20 +11496,20 @@
         <v>867</v>
       </c>
       <c r="B186" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C186" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D186">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F186" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -11517,20 +11517,20 @@
         <v>868</v>
       </c>
       <c r="B187" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C187" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D187">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F187" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -11538,20 +11538,20 @@
         <v>869</v>
       </c>
       <c r="B188" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C188" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D188">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F188" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -11559,20 +11559,20 @@
         <v>870</v>
       </c>
       <c r="B189" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C189" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D189">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F189" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -11580,20 +11580,20 @@
         <v>871</v>
       </c>
       <c r="B190" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C190" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D190">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F190" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -11601,20 +11601,20 @@
         <v>872</v>
       </c>
       <c r="B191" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C191" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D191">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E191" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F191" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -11622,20 +11622,20 @@
         <v>873</v>
       </c>
       <c r="B192" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C192" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D192">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F192" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -11643,20 +11643,20 @@
         <v>874</v>
       </c>
       <c r="B193" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C193" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D193">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E193" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F193" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -11664,20 +11664,20 @@
         <v>875</v>
       </c>
       <c r="B194" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C194" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D194">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E194" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F194" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -11685,20 +11685,20 @@
         <v>876</v>
       </c>
       <c r="B195" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C195" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D195">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E195" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F195" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -11706,20 +11706,20 @@
         <v>877</v>
       </c>
       <c r="B196" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C196" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D196">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F196" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -11727,20 +11727,20 @@
         <v>878</v>
       </c>
       <c r="B197" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C197" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D197">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F197" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -11748,20 +11748,20 @@
         <v>879</v>
       </c>
       <c r="B198" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C198" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D198">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E198" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F198" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -11769,20 +11769,20 @@
         <v>880</v>
       </c>
       <c r="B199" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C199" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D199">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F199" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -11910,15 +11910,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1" t="s">
         <v>1235</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11934,7 +11934,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -11950,7 +11950,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B7">
         <v>6</v>

--- a/database/seeds/csvs/schools-universities.xlsx
+++ b/database/seeds/csvs/schools-universities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A6E810-5142-475D-9C99-3C252AB274B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DB9CA7-0BEC-40C4-A168-378519E70296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C55A2BD8-7250-4E84-8D4E-BA2B9FD21431}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C55A2BD8-7250-4E84-8D4E-BA2B9FD21431}"/>
   </bookViews>
   <sheets>
     <sheet name="School" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1253">
   <si>
     <t>โรงเรียนยะหาศิรยานุกูล</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>โรงเรียนโพนทองพัฒนาวิทยา</t>
   </si>
   <si>
-    <t>โรงเรียนารีรัตน์จังหวัดแพร่</t>
-  </si>
-  <si>
     <t>โรงเรียนเทพศิรินทร์</t>
   </si>
   <si>
@@ -1098,9 +1095,6 @@
   </si>
   <si>
     <t>โรงเรียนสตรีวิทยา</t>
-  </si>
-  <si>
-    <t>โรวเรียนจอมสุรางค์อุปถัมภ์</t>
   </si>
   <si>
     <t>โรงเรียนสารภีพิทยคม</t>
@@ -4240,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1D01DB-4E4E-4EEA-A36B-C793EB9E7EB3}">
   <dimension ref="A1:A830"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A811" workbookViewId="0">
+      <selection activeCell="F817" sqref="F817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4251,22 +4245,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4276,12 +4270,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4291,12 +4285,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4321,7 +4315,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4331,22 +4325,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4356,12 +4350,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -4376,7 +4370,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4386,17 +4380,17 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -4416,17 +4410,17 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -4436,12 +4430,12 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4456,7 +4450,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -4466,12 +4460,12 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -4481,17 +4475,17 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -4501,12 +4495,12 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -4521,7 +4515,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -4546,12 +4540,12 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4561,12 +4555,12 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -4581,32 +4575,32 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -4616,22 +4610,22 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -4641,7 +4635,7 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -4651,7 +4645,7 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -4661,7 +4655,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -4681,7 +4675,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -4691,7 +4685,7 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -4701,12 +4695,12 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -4721,27 +4715,27 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -4751,22 +4745,22 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -4781,7 +4775,7 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -4791,32 +4785,32 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -4826,7 +4820,7 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -4841,17 +4835,17 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -4876,17 +4870,17 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -4896,22 +4890,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -4926,7 +4920,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -4946,7 +4940,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -4956,7 +4950,7 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -4976,12 +4970,12 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -4991,22 +4985,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -5021,12 +5015,12 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -5036,37 +5030,37 @@
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -5081,37 +5075,37 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -5121,67 +5115,67 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -5196,22 +5190,22 @@
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:1">
@@ -5221,7 +5215,7 @@
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:1">
@@ -5231,17 +5225,17 @@
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="200" spans="1:1">
@@ -5251,7 +5245,7 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="202" spans="1:1">
@@ -5271,7 +5265,7 @@
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -5281,7 +5275,7 @@
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="208" spans="1:1">
@@ -5291,7 +5285,7 @@
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -5301,17 +5295,17 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="214" spans="1:1">
@@ -5326,17 +5320,17 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -5346,12 +5340,12 @@
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="222" spans="1:1">
@@ -5381,17 +5375,17 @@
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="230" spans="1:1">
@@ -5406,27 +5400,27 @@
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="237" spans="1:1">
@@ -5456,57 +5450,57 @@
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="253" spans="1:1">
@@ -5541,7 +5535,7 @@
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="260" spans="1:1">
@@ -5551,27 +5545,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="266" spans="1:1">
@@ -5581,27 +5575,27 @@
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -5611,37 +5605,37 @@
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="280" spans="1:1">
@@ -5651,27 +5645,27 @@
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="286" spans="1:1">
@@ -5686,7 +5680,7 @@
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="289" spans="1:1">
@@ -5696,12 +5690,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="292" spans="1:1">
@@ -5731,32 +5725,32 @@
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="303" spans="1:1">
@@ -5766,7 +5760,7 @@
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="305" spans="1:1">
@@ -5781,7 +5775,7 @@
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="308" spans="1:1">
@@ -5801,7 +5795,7 @@
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="312" spans="1:1">
@@ -5826,12 +5820,12 @@
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="318" spans="1:1">
@@ -5841,7 +5835,7 @@
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="320" spans="1:1">
@@ -5851,7 +5845,7 @@
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="322" spans="1:1">
@@ -5886,12 +5880,12 @@
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="330" spans="1:1">
@@ -5906,7 +5900,7 @@
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="333" spans="1:1">
@@ -5916,12 +5910,12 @@
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="336" spans="1:1">
@@ -5936,7 +5930,7 @@
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="339" spans="1:1">
@@ -5956,22 +5950,22 @@
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="346" spans="1:1">
@@ -5981,7 +5975,7 @@
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="348" spans="1:1">
@@ -6001,7 +5995,7 @@
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="352" spans="1:1">
@@ -6016,7 +6010,7 @@
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="355" spans="1:1">
@@ -6026,12 +6020,12 @@
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="358" spans="1:1">
@@ -6041,7 +6035,7 @@
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="360" spans="1:1">
@@ -6056,12 +6050,12 @@
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="364" spans="1:1">
@@ -6076,12 +6070,12 @@
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="368" spans="1:1">
@@ -6091,12 +6085,12 @@
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="371" spans="1:1">
@@ -6116,22 +6110,22 @@
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="378" spans="1:1">
@@ -6141,12 +6135,12 @@
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="381" spans="1:1">
@@ -6156,12 +6150,12 @@
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="384" spans="1:1">
@@ -6176,12 +6170,12 @@
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="388" spans="1:1">
@@ -6191,7 +6185,7 @@
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="390" spans="1:1">
@@ -6201,7 +6195,7 @@
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="392" spans="1:1">
@@ -6216,12 +6210,12 @@
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="396" spans="1:1">
@@ -6236,7 +6230,7 @@
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="399" spans="1:1">
@@ -6251,22 +6245,22 @@
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="405" spans="1:1">
@@ -6281,12 +6275,12 @@
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="409" spans="1:1">
@@ -6301,22 +6295,22 @@
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="415" spans="1:1">
@@ -6331,12 +6325,12 @@
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="419" spans="1:1">
@@ -6346,7 +6340,7 @@
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="421" spans="1:1">
@@ -6356,7 +6350,7 @@
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="423" spans="1:1">
@@ -6366,7 +6360,7 @@
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="425" spans="1:1">
@@ -6376,27 +6370,27 @@
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="431" spans="1:1">
@@ -6416,7 +6410,7 @@
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="435" spans="1:1">
@@ -6426,32 +6420,32 @@
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="442" spans="1:1">
@@ -6476,7 +6470,7 @@
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="447" spans="1:1">
@@ -6491,12 +6485,12 @@
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="451" spans="1:1">
@@ -6511,7 +6505,7 @@
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="454" spans="1:1">
@@ -6531,7 +6525,7 @@
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="458" spans="1:1">
@@ -6556,7 +6550,7 @@
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="463" spans="1:1">
@@ -6571,17 +6565,17 @@
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="468" spans="1:1">
@@ -6596,7 +6590,7 @@
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="471" spans="1:1">
@@ -6626,22 +6620,22 @@
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="480" spans="1:1">
@@ -6651,7 +6645,7 @@
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="482" spans="1:1">
@@ -6661,12 +6655,12 @@
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -6676,22 +6670,22 @@
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="490" spans="1:1">
@@ -6706,7 +6700,7 @@
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="493" spans="1:1">
@@ -6726,7 +6720,7 @@
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="497" spans="1:1">
@@ -6751,12 +6745,12 @@
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="503" spans="1:1">
@@ -6781,7 +6775,7 @@
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="508" spans="1:1">
@@ -6816,7 +6810,7 @@
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="515" spans="1:1">
@@ -6831,7 +6825,7 @@
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="518" spans="1:1">
@@ -6841,67 +6835,67 @@
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -6921,7 +6915,7 @@
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="536" spans="1:1">
@@ -6931,17 +6925,17 @@
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="540" spans="1:1">
@@ -6966,17 +6960,17 @@
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="547" spans="1:1">
@@ -7001,7 +6995,7 @@
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="552" spans="1:1">
@@ -7021,12 +7015,12 @@
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="557" spans="1:1">
@@ -7046,7 +7040,7 @@
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="561" spans="1:1">
@@ -7061,7 +7055,7 @@
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="564" spans="1:1">
@@ -7071,7 +7065,7 @@
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="566" spans="1:1">
@@ -7091,37 +7085,37 @@
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="576" spans="1:1">
@@ -7151,7 +7145,7 @@
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="582" spans="1:1">
@@ -7161,7 +7155,7 @@
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="584" spans="1:1">
@@ -7171,12 +7165,12 @@
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="587" spans="1:1">
@@ -7191,7 +7185,7 @@
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="590" spans="1:1">
@@ -7201,7 +7195,7 @@
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="592" spans="1:1">
@@ -7216,12 +7210,12 @@
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="596" spans="1:1">
@@ -7236,7 +7230,7 @@
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="599" spans="1:1">
@@ -7246,7 +7240,7 @@
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="601" spans="1:1">
@@ -7256,12 +7250,12 @@
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="604" spans="1:1">
@@ -7281,7 +7275,7 @@
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="608" spans="1:1">
@@ -7296,32 +7290,32 @@
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="616" spans="1:1">
@@ -7331,62 +7325,62 @@
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="629" spans="1:1">
@@ -7401,87 +7395,87 @@
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="648" spans="1:1">
@@ -7491,82 +7485,82 @@
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="665" spans="1:1">
@@ -7576,22 +7570,22 @@
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="670" spans="1:1">
@@ -7601,77 +7595,77 @@
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="686" spans="1:1">
@@ -7681,7 +7675,7 @@
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="688" spans="1:1">
@@ -7706,7 +7700,7 @@
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="693" spans="1:1">
@@ -7716,12 +7710,12 @@
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="696" spans="1:1">
@@ -7731,7 +7725,7 @@
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="698" spans="1:1">
@@ -7751,52 +7745,52 @@
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="711" spans="1:1">
@@ -7806,7 +7800,7 @@
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="713" spans="1:1">
@@ -7816,22 +7810,22 @@
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="718" spans="1:1">
@@ -7846,7 +7840,7 @@
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="721" spans="1:1">
@@ -7866,27 +7860,27 @@
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="729" spans="1:1">
@@ -7906,7 +7900,7 @@
     </row>
     <row r="732" spans="1:1">
       <c r="A732" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="733" spans="1:1">
@@ -7916,7 +7910,7 @@
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="735" spans="1:1">
@@ -7931,22 +7925,22 @@
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="741" spans="1:1">
@@ -7966,22 +7960,22 @@
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="748" spans="1:1">
@@ -7991,7 +7985,7 @@
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="750" spans="1:1">
@@ -8021,17 +8015,17 @@
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="758" spans="1:1">
@@ -8046,12 +8040,12 @@
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="762" spans="1:1">
@@ -8061,17 +8055,17 @@
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="766" spans="1:1">
@@ -8091,12 +8085,12 @@
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="771" spans="1:1">
@@ -8106,7 +8100,7 @@
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="773" spans="1:1">
@@ -8121,12 +8115,12 @@
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="777" spans="1:1">
@@ -8141,32 +8135,32 @@
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="785" spans="1:1">
@@ -8176,7 +8170,7 @@
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="787" spans="1:1">
@@ -8186,7 +8180,7 @@
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="789" spans="1:1">
@@ -8201,12 +8195,12 @@
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="793" spans="1:1">
@@ -8216,7 +8210,7 @@
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="795" spans="1:1">
@@ -8226,7 +8220,7 @@
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="797" spans="1:1">
@@ -8241,12 +8235,12 @@
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="801" spans="1:1">
@@ -8261,17 +8255,17 @@
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="806" spans="1:1">
@@ -8281,7 +8275,7 @@
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="808" spans="1:1">
@@ -8296,27 +8290,27 @@
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="815" spans="1:1">
@@ -8326,7 +8320,7 @@
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="817" spans="1:1">
@@ -8346,7 +8340,7 @@
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="821" spans="1:1">
@@ -8366,17 +8360,17 @@
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="827" spans="1:1">
@@ -8386,17 +8380,17 @@
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="1" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="1" t="s">
-        <v>357</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -8411,7 +8405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54777062-7541-45FA-8504-632238C86CFC}">
   <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -8425,33 +8419,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E1" t="s">
         <v>1231</v>
       </c>
-      <c r="B1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1234</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8460,13 +8454,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8475,13 +8469,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8490,13 +8484,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8505,13 +8499,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C6" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8520,13 +8514,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D7">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8535,13 +8529,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B8" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8550,13 +8544,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8565,13 +8559,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C10" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8580,13 +8574,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8595,13 +8589,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8610,13 +8604,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C13" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8625,13 +8619,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B14" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8640,13 +8634,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C15" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8655,13 +8649,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B16" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C16" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8670,13 +8664,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C17" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8685,13 +8679,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B18" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8700,13 +8694,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B19" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8715,13 +8709,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B20" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8730,13 +8724,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B21" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C21" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8745,13 +8739,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B22" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C22" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8760,13 +8754,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B23" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8775,13 +8769,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B24" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C24" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8790,13 +8784,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B25" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C25" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8805,13 +8799,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B26" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C26" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8820,13 +8814,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B27" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C27" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8835,13 +8829,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B28" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C28" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8850,13 +8844,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B29" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8865,13 +8859,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C30" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8880,13 +8874,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B31" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C31" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8895,13 +8889,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B32" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C32" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8910,13 +8904,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B33" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C33" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8925,13 +8919,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B34" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C34" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8940,13 +8934,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B35" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C35" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8955,13 +8949,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B36" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C36" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8970,13 +8964,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B37" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C37" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -8985,13 +8979,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B38" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C38" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9000,13 +8994,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B39" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C39" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9015,13 +9009,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B40" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C40" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9030,13 +9024,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B41" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C41" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9045,13 +9039,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B42" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C42" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9060,13 +9054,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B43" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C43" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9075,13 +9069,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B44" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C44" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9090,13 +9084,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B45" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C45" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9105,13 +9099,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B46" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C46" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9120,13 +9114,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B47" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C47" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9135,13 +9129,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B48" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C48" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9150,13 +9144,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B49" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C49" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9165,13 +9159,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B50" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C50" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9180,13 +9174,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B51" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C51" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9195,13 +9189,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B52" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C52" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9210,13 +9204,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B53" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C53" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9225,13 +9219,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B54" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C54" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9240,13 +9234,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B55" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C55" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9255,13 +9249,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B56" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C56" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9270,13 +9264,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B57" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C57" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9285,13 +9279,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B58" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C58" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9300,13 +9294,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B59" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C59" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9315,13 +9309,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B60" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C60" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9330,13 +9324,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B61" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9345,13 +9339,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B62" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C62" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9360,13 +9354,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B63" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C63" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9375,13 +9369,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B64" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C64" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9390,13 +9384,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B65" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C65" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9405,13 +9399,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B66" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C66" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9420,13 +9414,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B67" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C67" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D67">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9435,13 +9429,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B68" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C68" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D68">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9450,13 +9444,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B69" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C69" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D69">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9465,13 +9459,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B70" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C70" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D70">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9480,13 +9474,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B71" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C71" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D71">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9495,13 +9489,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B72" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C72" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D72">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9510,13 +9504,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B73" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C73" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D73">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9525,13 +9519,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B74" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C74" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9540,13 +9534,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B75" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C75" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D75">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9555,13 +9549,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B76" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C76" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D76">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9570,13 +9564,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B77" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C77" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9585,13 +9579,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B78" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C78" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D78">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9600,13 +9594,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B79" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C79" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D79">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9615,13 +9609,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B80" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C80" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D80">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9630,13 +9624,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B81" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C81" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D81">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9645,13 +9639,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B82" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C82" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9660,13 +9654,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B83" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C83" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9675,13 +9669,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B84" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C84" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D84">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9690,13 +9684,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B85" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C85" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9705,13 +9699,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B86" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C86" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9720,13 +9714,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B87" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C87" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9735,13 +9729,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B88" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C88" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D88">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9750,13 +9744,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B89" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C89" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9765,13 +9759,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B90" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C90" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9780,13 +9774,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B91" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C91" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9795,13 +9789,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B92" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C92" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D92">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9810,13 +9804,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B93" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C93" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9825,13 +9819,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B94" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C94" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9840,13 +9834,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B95" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C95" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9855,13 +9849,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B96" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C96" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D96">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9870,13 +9864,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B97" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C97" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D97">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9885,13 +9879,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B98" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C98" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D98">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9900,13 +9894,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B99" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C99" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D99">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9915,13 +9909,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B100" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C100" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D100">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9930,13 +9924,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B101" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C101" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D101">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9945,13 +9939,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B102" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C102" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9960,13 +9954,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B103" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C103" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9975,13 +9969,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B104" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C104" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D104">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -9990,13 +9984,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B105" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C105" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D105">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10005,13 +9999,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B106" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C106" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D106">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10020,13 +10014,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B107" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C107" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D107">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10035,13 +10029,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B108" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C108" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D108">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10050,13 +10044,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B109" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C109" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D109">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10065,13 +10059,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B110" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C110" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D110">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10080,13 +10074,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B111" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C111" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D111">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10095,13 +10089,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B112" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C112" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D112">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10110,13 +10104,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B113" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C113" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D113">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10125,13 +10119,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B114" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C114" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D114">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10140,13 +10134,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B115" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C115" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D115">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10155,286 +10149,286 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B116" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C116" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D116">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F116" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B117" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C117" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D117">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F117" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B118" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C118" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D118">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F118" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B119" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C119" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D119">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B120" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C120" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D120">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F120" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B121" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C121" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D121">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F121" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B122" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C122" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F122" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B123" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C123" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F123" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B124" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C124" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F124" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B125" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C125" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B126" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C126" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F126" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B127" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C127" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D127">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F127" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B128" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C128" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F128" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B129" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C129" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10443,13 +10437,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B130" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C130" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10458,13 +10452,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B131" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C131" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10473,13 +10467,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B132" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C132" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D132">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10488,13 +10482,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B133" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C133" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10503,13 +10497,13 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B134" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C134" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10518,13 +10512,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B135" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C135" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D135">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10533,13 +10527,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B136" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C136" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10548,13 +10542,13 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B137" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C137" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10563,34 +10557,34 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B138" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C138" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F138" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B139" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C139" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10599,13 +10593,13 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B140" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C140" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10614,13 +10608,13 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B141" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C141" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10629,13 +10623,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B142" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C142" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10644,34 +10638,34 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B143" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C143" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F143" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B144" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C144" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D144">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10680,13 +10674,13 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B145" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C145" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10695,13 +10689,13 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B146" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C146" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10710,13 +10704,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B147" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C147" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10725,13 +10719,13 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B148" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C148" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10740,13 +10734,13 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B149" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C149" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10755,13 +10749,13 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B150" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C150" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10770,13 +10764,13 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B151" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C151" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10785,13 +10779,13 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B152" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C152" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
@@ -10800,989 +10794,989 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B153" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C153" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F153" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B154" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C154" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F154" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B155" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C155" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F155" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B156" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C156" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F156" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B157" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C157" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F157" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B158" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C158" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F158" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B159" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C159" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F159" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B160" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C160" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D160">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F160" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B161" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C161" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F161" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B162" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C162" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F162" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B163" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C163" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F163" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B164" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C164" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E164" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F164" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B165" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C165" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F165" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B166" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C166" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F166" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B167" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C167" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D167">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F167" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B168" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C168" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F168" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B169" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C169" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D169">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F169" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B170" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C170" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D170">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F170" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B171" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C171" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F171" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B172" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C172" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F172" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B173" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C173" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D173">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F173" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B174" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C174" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D174">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F174" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B175" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C175" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F175" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B176" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C176" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D176">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F176" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B177" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C177" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F177" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B178" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C178" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F178" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B179" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C179" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F179" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B180" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C180" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D180">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F180" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B181" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C181" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F181" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B182" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C182" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F182" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B183" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C183" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F183" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B184" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C184" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F184" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B185" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C185" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D185">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F185" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B186" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C186" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D186">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F186" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B187" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C187" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D187">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F187" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B188" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C188" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D188">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F188" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B189" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C189" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D189">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F189" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B190" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C190" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D190">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F190" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B191" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C191" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D191">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E191" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F191" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B192" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C192" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D192">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F192" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B193" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C193" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D193">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E193" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F193" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B194" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C194" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D194">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E194" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F194" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B195" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C195" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D195">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E195" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F195" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B196" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C196" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D196">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F196" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B197" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C197" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D197">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F197" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B198" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C198" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D198">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E198" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F198" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B199" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C199" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D199">
         <f>VLOOKUP(Table1[[#This Row],[subtype_text]],Table13[#All],2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F199" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -11910,15 +11904,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11926,7 +11920,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11934,7 +11928,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -11942,7 +11936,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -11950,7 +11944,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -11958,7 +11952,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B7">
         <v>6</v>
